--- a/resources/analysis/CharacterDistribution.xlsx
+++ b/resources/analysis/CharacterDistribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git - v4j\resources\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CED7439-8C33-4F89-ABA4-72559B22F86C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1B2C1D-0F5E-4509-8BC1-00654CFB4541}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24570" windowHeight="14620" activeTab="1" xr2:uid="{28084D89-986C-43D7-B7C5-D3C73F764B73}"/>
+    <workbookView xWindow="8640" yWindow="600" windowWidth="14400" windowHeight="13000" xr2:uid="{28084D89-986C-43D7-B7C5-D3C73F764B73}"/>
   </bookViews>
   <sheets>
     <sheet name="Characer Distributions" sheetId="10" r:id="rId1"/>
@@ -384,14 +384,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -440,14 +440,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -777,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A39694-E2CC-46DB-B96E-DA01A1F88493}">
   <dimension ref="A1:AB126"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:XFD79"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6819,10 +6819,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:AB64">
-    <cfRule type="cellIs" dxfId="8" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="18" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6947,10 +6947,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:AB24">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6966,7 +6966,7 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>

--- a/resources/analysis/CharacterDistribution.xlsx
+++ b/resources/analysis/CharacterDistribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git - v4j\resources\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A107087D-A8E7-4F21-B77E-868AC078EE24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D252D5C-BB70-4702-A25C-0EA82348B2F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24570" windowHeight="14620" activeTab="4" xr2:uid="{28084D89-986C-43D7-B7C5-D3C73F764B73}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24570" windowHeight="14620" activeTab="1" xr2:uid="{28084D89-986C-43D7-B7C5-D3C73F764B73}"/>
   </bookViews>
   <sheets>
     <sheet name="Slot Alphabet by Cluster" sheetId="12" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="629">
   <si>
     <t>Transcription     : AUGMENTED</t>
   </si>
@@ -175,21 +175,9 @@
     <t>* The distribution is not the same across all clusters. Only some letters behave the same acreoss all document</t>
   </si>
   <si>
-    <t>* Not true all gallows are in first line</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> some appear LESS than they shoud</t>
-  </si>
-  <si>
     <t>* t is different form the others</t>
   </si>
   <si>
-    <t>* C and S behave differntly</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S appeas a lot in first line of paragraphs</t>
-  </si>
-  <si>
     <t>* q appears at beginning only in HA, in SB it is the opposite</t>
   </si>
   <si>
@@ -691,9 +679,6 @@
     <t>Bt6</t>
   </si>
   <si>
-    <t>Confidence</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
@@ -1862,6 +1847,108 @@
   </si>
   <si>
     <t>http://m.docente.unife.it/giorgio.bertorelle/didattica_insegnamenti/biostatistica-1/Slide9.pdf</t>
+  </si>
+  <si>
+    <t>Nice Voynich browsers to add to main page</t>
+  </si>
+  <si>
+    <t>https://www.jasondavies.com/voynich/#f68r1_f68r2_f68r3/0.422/0.371/2.30</t>
+  </si>
+  <si>
+    <t>https://ambertide.github.io/VoynichExplorer/folio/f2r.html</t>
+  </si>
+  <si>
+    <t>Voynich Navigator ??????</t>
+  </si>
+  <si>
+    <t>* Cluster pages by char distribution, maybe we find new languages :)</t>
+  </si>
+  <si>
+    <r>
+      <t>The confidence level is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>equivalent to 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> – the alpha level. So, if your significance level is 0.05, the corresponding confidence level is 95%. If the P value is less than your significance (alpha) level, the hypothesis test is statistically significan</t>
+    </r>
+  </si>
+  <si>
+    <t>* Char distruîbution (alphabet) is different for each cluster</t>
+  </si>
+  <si>
+    <t>* If this depends on different languages used, we have a team of people speaking different languages….unplausible</t>
+  </si>
+  <si>
+    <t>* Cross check distribution of hands and above clusters</t>
+  </si>
+  <si>
+    <t>* Not true all gallows are in first line  some appear LESS than they shoud</t>
+  </si>
+  <si>
+    <t>* C and S behave differntly  S appeas a lot in first line of paragraphs</t>
+  </si>
+  <si>
+    <t>* Create a graph of pages where pages are connected if they belong to same distribution…see clusters</t>
+  </si>
+  <si>
+    <t>TO READ</t>
+  </si>
+  <si>
+    <t>https://www.d.umn.edu/~tpederse/Courses/CS5761-SPR04/Projects/rajk0007.pdf</t>
+  </si>
+  <si>
+    <t>Significance [alpha]</t>
+  </si>
+  <si>
+    <t>v [73.616%]</t>
+  </si>
+  <si>
+    <t>v [24.701%]</t>
+  </si>
+  <si>
+    <t>^ [78.375%]</t>
+  </si>
+  <si>
+    <t>v [31.102%]</t>
+  </si>
+  <si>
+    <t>v [11.205%]</t>
+  </si>
+  <si>
+    <t>v [55.943%]</t>
+  </si>
+  <si>
+    <t>v [24.273%]</t>
+  </si>
+  <si>
+    <t>v [50.029%]</t>
+  </si>
+  <si>
+    <t>^ [17.838%]</t>
+  </si>
+  <si>
+    <t>- [0.004%]</t>
+  </si>
+  <si>
+    <t>^ [20.035%]</t>
+  </si>
+  <si>
+    <t>Alpha             : 1.000%</t>
   </si>
 </sst>
 </file>
@@ -1871,7 +1958,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1938,6 +2025,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -2144,7 +2244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -2268,6 +2368,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2810,7 +2911,7 @@
   <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14:W19"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2835,7 +2936,7 @@
     </row>
     <row r="4" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -3954,10 +4055,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A39694-E2CC-46DB-B96E-DA01A1F88493}">
-  <dimension ref="A1:AB60"/>
+  <dimension ref="A1:AB61"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3991,2846 +4092,2870 @@
       </c>
       <c r="B3" s="7"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B4" s="7"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-    </row>
-    <row r="8" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+    </row>
+    <row r="9" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="C8" s="15" t="s">
+      <c r="B9" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H9" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="17" t="s">
+      <c r="N9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="O8" s="17" t="s">
+      <c r="O9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="P8" s="17" t="s">
+      <c r="P9" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="Q8" s="17" t="s">
+      <c r="Q9" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="R8" s="18" t="s">
+      <c r="R9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="S8" s="18" t="s">
+      <c r="S9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="T8" s="18" t="s">
+      <c r="T9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="U8" s="15" t="s">
+      <c r="U9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="V8" s="15" t="s">
+      <c r="V9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="W8" s="19" t="s">
+      <c r="W9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="X8" s="19" t="s">
+      <c r="X9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="Y8" s="19" t="s">
+      <c r="Y9" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="Z8" s="15" t="s">
+      <c r="Z9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AA8" s="15" t="s">
+      <c r="AA9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AB8" s="15" t="s">
+      <c r="AB9" s="15" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="14">
-        <v>0</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="M9" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="N9" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="O9" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q9" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="R9" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="S9" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="T9" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="U9" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="V9" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="W9" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="X9" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y9" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z9" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="AA9" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="AB9" s="20" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B10" s="14">
         <v>0</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>301</v>
+        <v>214</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="N10" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="O10" s="20" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q10" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R10" s="20" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="S10" s="20" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="T10" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="U10" s="20" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="V10" s="20" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="W10" s="20" t="s">
-        <v>217</v>
+        <v>285</v>
       </c>
       <c r="X10" s="20" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="Y10" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Z10" s="20" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="AA10" s="20" t="s">
-        <v>217</v>
+        <v>288</v>
       </c>
       <c r="AB10" s="20" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="14">
         <v>0</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="O11" s="20" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="R11" s="20" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="S11" s="20" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="T11" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="U11" s="20" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="V11" s="20" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="W11" s="20" t="s">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="X11" s="20" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="Y11" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Z11" s="20" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="AA11" s="20" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="AB11" s="20" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="14">
         <v>0</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>224</v>
+        <v>308</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>332</v>
+        <v>262</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>333</v>
+        <v>215</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="N12" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="O12" s="20" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="P12" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Q12" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="R12" s="20" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="S12" s="20" t="s">
-        <v>268</v>
+        <v>315</v>
       </c>
       <c r="T12" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="U12" s="20" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="V12" s="20" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="W12" s="20" t="s">
-        <v>217</v>
+        <v>318</v>
       </c>
       <c r="X12" s="20" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="Y12" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Z12" s="20" t="s">
-        <v>222</v>
+        <v>320</v>
       </c>
       <c r="AA12" s="20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AB12" s="20" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="14">
         <v>0</v>
       </c>
       <c r="C13" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="N13" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="O13" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="P13" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q13" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="R13" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="S13" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="T13" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="U13" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="V13" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="W13" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="X13" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y13" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z13" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA13" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB13" s="20" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="I14" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="J14" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="M14" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="N14" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="O14" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="P14" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q14" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="R14" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="S14" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="G13" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="H13" s="20" t="s">
+      <c r="T14" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="U14" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="V14" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="J13" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="M13" s="20" t="s">
+      <c r="W14" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="X14" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="N13" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="O13" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="P13" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q13" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="R13" s="20" t="s">
+      <c r="Y14" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z14" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA14" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="S13" s="20" t="s">
+      <c r="AB14" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="T13" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="U13" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="V13" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="W13" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="X13" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="Y13" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z13" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="AA13" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB13" s="20" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-    </row>
-    <row r="17" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+    </row>
+    <row r="18" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="C17" s="15" t="s">
+      <c r="B18" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F18" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I18" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K18" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="17" t="s">
+      <c r="L18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="M17" s="17" t="s">
+      <c r="M18" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="17" t="s">
+      <c r="N18" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="O17" s="17" t="s">
+      <c r="O18" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="P17" s="17" t="s">
+      <c r="P18" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="Q17" s="17" t="s">
+      <c r="Q18" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="R17" s="18" t="s">
+      <c r="R18" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="S17" s="18" t="s">
+      <c r="S18" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="T17" s="18" t="s">
+      <c r="T18" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="U17" s="15" t="s">
+      <c r="U18" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="V17" s="15" t="s">
+      <c r="V18" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="W17" s="19" t="s">
+      <c r="W18" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="X17" s="19" t="s">
+      <c r="X18" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="Y17" s="19" t="s">
+      <c r="Y18" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="Z17" s="15" t="s">
+      <c r="Z18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AA17" s="15" t="s">
+      <c r="AA18" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AB17" s="15" t="s">
+      <c r="AB18" s="15" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="14">
-        <v>0</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>359</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>360</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="L18" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="M18" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="N18" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="O18" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="P18" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q18" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="R18" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="S18" s="20" t="s">
-        <v>363</v>
-      </c>
-      <c r="T18" s="20" t="s">
-        <v>364</v>
-      </c>
-      <c r="U18" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="V18" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="W18" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="X18" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y18" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z18" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="AA18" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="AB18" s="20" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B19" s="14">
         <v>0</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>230</v>
+        <v>355</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M19" s="20" t="s">
-        <v>219</v>
+        <v>356</v>
       </c>
       <c r="N19" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="O19" s="20" t="s">
-        <v>377</v>
+        <v>223</v>
       </c>
       <c r="P19" s="20" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q19" s="20" t="s">
-        <v>378</v>
+        <v>224</v>
       </c>
       <c r="R19" s="20" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="S19" s="20" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="T19" s="20" t="s">
-        <v>217</v>
+        <v>359</v>
       </c>
       <c r="U19" s="20" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="V19" s="20" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="W19" s="20" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="X19" s="20" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="Y19" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Z19" s="20" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="AA19" s="20" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="AB19" s="20" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="14">
         <v>0</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>219</v>
+        <v>369</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>392</v>
+        <v>225</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M20" s="20" t="s">
-        <v>393</v>
+        <v>214</v>
       </c>
       <c r="N20" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="P20" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Q20" s="20" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="R20" s="20" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="S20" s="20" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="T20" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="U20" s="20" t="s">
-        <v>270</v>
+        <v>376</v>
       </c>
       <c r="V20" s="20" t="s">
-        <v>271</v>
+        <v>377</v>
       </c>
       <c r="W20" s="20" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="X20" s="20" t="s">
-        <v>232</v>
+        <v>379</v>
       </c>
       <c r="Y20" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Z20" s="20" t="s">
-        <v>233</v>
+        <v>380</v>
       </c>
       <c r="AA20" s="20" t="s">
-        <v>234</v>
+        <v>381</v>
       </c>
       <c r="AB20" s="20" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="14">
         <v>0</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>272</v>
+        <v>384</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>401</v>
+        <v>214</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>235</v>
+        <v>386</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>404</v>
+        <v>215</v>
       </c>
       <c r="L21" s="20" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M21" s="20" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="N21" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="O21" s="20" t="s">
-        <v>237</v>
+        <v>389</v>
       </c>
       <c r="P21" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Q21" s="20" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="R21" s="20" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="S21" s="20" t="s">
-        <v>238</v>
+        <v>392</v>
       </c>
       <c r="T21" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="U21" s="20" t="s">
-        <v>408</v>
+        <v>265</v>
       </c>
       <c r="V21" s="20" t="s">
-        <v>409</v>
+        <v>266</v>
       </c>
       <c r="W21" s="20" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="X21" s="20" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="Y21" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Z21" s="20" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="AA21" s="20" t="s">
-        <v>411</v>
+        <v>229</v>
       </c>
       <c r="AB21" s="20" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="14">
         <v>0</v>
       </c>
       <c r="C22" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="M22" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="N22" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="O22" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="P22" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q22" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="R22" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="S22" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="T22" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="U22" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="V22" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="W22" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="X22" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y22" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z22" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA22" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="AB22" s="20" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="14">
+        <v>0</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="M23" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="N23" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="O23" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="P23" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q23" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="R23" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="S23" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T23" s="20" t="s">
         <v>414</v>
       </c>
-      <c r="E22" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="F22" s="20" t="s">
+      <c r="U23" s="20" t="s">
         <v>415</v>
       </c>
-      <c r="G22" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="H22" s="20" t="s">
+      <c r="V23" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="W23" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="X23" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y23" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z23" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA23" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="I22" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="K22" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="L22" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="M22" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="N22" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="O22" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="P22" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q22" s="20" t="s">
+      <c r="AB23" s="20" t="s">
         <v>417</v>
       </c>
-      <c r="R22" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="S22" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="T22" s="20" t="s">
-        <v>419</v>
-      </c>
-      <c r="U22" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="V22" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="W22" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="X22" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y22" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z22" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="AA22" s="20" t="s">
-        <v>421</v>
-      </c>
-      <c r="AB22" s="20" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-    </row>
-    <row r="26" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+    </row>
+    <row r="27" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="C26" s="15" t="s">
+      <c r="B27" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D27" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E27" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F27" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G27" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H27" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="16" t="s">
+      <c r="I27" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J26" s="17" t="s">
+      <c r="J27" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K26" s="17" t="s">
+      <c r="K27" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L26" s="17" t="s">
+      <c r="L27" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="M26" s="17" t="s">
+      <c r="M27" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N26" s="17" t="s">
+      <c r="N27" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="O26" s="17" t="s">
+      <c r="O27" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="P26" s="17" t="s">
+      <c r="P27" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="Q26" s="17" t="s">
+      <c r="Q27" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="R26" s="18" t="s">
+      <c r="R27" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="S26" s="18" t="s">
+      <c r="S27" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="T26" s="18" t="s">
+      <c r="T27" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="U26" s="15" t="s">
+      <c r="U27" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="V26" s="15" t="s">
+      <c r="V27" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="W26" s="19" t="s">
+      <c r="W27" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="X26" s="19" t="s">
+      <c r="X27" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="Y26" s="19" t="s">
+      <c r="Y27" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="Z26" s="15" t="s">
+      <c r="Z27" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AA26" s="15" t="s">
+      <c r="AA27" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AB26" s="15" t="s">
+      <c r="AB27" s="15" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="14">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>424</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>425</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>427</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I27" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>429</v>
-      </c>
-      <c r="K27" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="L27" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="M27" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="N27" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="O27" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="P27" s="20" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q27" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="R27" s="20" t="s">
-        <v>435</v>
-      </c>
-      <c r="S27" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="T27" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="U27" s="20" t="s">
-        <v>437</v>
-      </c>
-      <c r="V27" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="W27" s="20" t="s">
-        <v>439</v>
-      </c>
-      <c r="X27" s="20" t="s">
-        <v>440</v>
-      </c>
-      <c r="Y27" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z27" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="AA27" s="20" t="s">
-        <v>442</v>
-      </c>
-      <c r="AB27" s="20" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B28" s="14">
-        <v>3.2599999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>445</v>
+        <v>419</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>447</v>
+        <v>421</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>448</v>
+        <v>422</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>244</v>
+        <v>423</v>
       </c>
       <c r="I28" s="20" t="s">
-        <v>449</v>
+        <v>238</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>217</v>
+        <v>424</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>451</v>
+        <v>215</v>
       </c>
       <c r="M28" s="20" t="s">
-        <v>452</v>
+        <v>426</v>
       </c>
       <c r="N28" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="O28" s="20" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="P28" s="20" t="s">
-        <v>217</v>
+        <v>428</v>
       </c>
       <c r="Q28" s="20" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="R28" s="20" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="S28" s="20" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="T28" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="U28" s="20" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="V28" s="20" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="W28" s="20" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="X28" s="20" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="Y28" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Z28" s="20" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="AA28" s="20" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="AB28" s="20" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="14">
-        <v>6.3499999999999997E-3</v>
+        <v>1.8500000000000001E-3</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>469</v>
+        <v>239</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>470</v>
+        <v>444</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>471</v>
+        <v>212</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="L29" s="20" t="s">
-        <v>257</v>
+        <v>446</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="N29" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="O29" s="20" t="s">
-        <v>474</v>
+        <v>448</v>
       </c>
       <c r="P29" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Q29" s="20" t="s">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="R29" s="20" t="s">
-        <v>476</v>
+        <v>450</v>
       </c>
       <c r="S29" s="20" t="s">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="T29" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="U29" s="20" t="s">
-        <v>478</v>
+        <v>452</v>
       </c>
       <c r="V29" s="20" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="W29" s="20" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="X29" s="20" t="s">
-        <v>481</v>
+        <v>455</v>
       </c>
       <c r="Y29" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Z29" s="20" t="s">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="AA29" s="20" t="s">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="AB29" s="20" t="s">
-        <v>484</v>
+        <v>458</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="14">
-        <v>0</v>
+        <v>8.3800000000000003E-3</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>245</v>
+        <v>459</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>246</v>
+        <v>461</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>274</v>
+        <v>462</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="I30" s="20" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>217</v>
+        <v>466</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="L30" s="20" t="s">
-        <v>490</v>
+        <v>252</v>
       </c>
       <c r="M30" s="20" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="N30" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="O30" s="20" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
       <c r="P30" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Q30" s="20" t="s">
-        <v>493</v>
+        <v>470</v>
       </c>
       <c r="R30" s="20" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="S30" s="20" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="T30" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="U30" s="20" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="V30" s="20" t="s">
-        <v>497</v>
+        <v>474</v>
       </c>
       <c r="W30" s="20" t="s">
-        <v>498</v>
+        <v>475</v>
       </c>
       <c r="X30" s="20" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="Y30" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Z30" s="20" t="s">
-        <v>500</v>
+        <v>477</v>
       </c>
       <c r="AA30" s="20" t="s">
-        <v>217</v>
+        <v>478</v>
       </c>
       <c r="AB30" s="20" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="14">
         <v>0</v>
       </c>
       <c r="C31" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="K31" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="L31" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="M31" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="N31" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="O31" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="P31" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q31" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="R31" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="S31" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="T31" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="U31" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="V31" s="20" t="s">
+        <v>492</v>
+      </c>
+      <c r="W31" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="X31" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y31" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z31" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="AA31" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB31" s="20" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="14">
+        <v>0</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="L32" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="M32" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="N32" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="O32" s="20" t="s">
+        <v>502</v>
+      </c>
+      <c r="P32" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q32" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="R32" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="S32" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="T32" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="U32" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="V32" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="W32" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="X32" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y32" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z32" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="D31" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>502</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>503</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>504</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="I31" s="20" t="s">
-        <v>505</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="K31" s="20" t="s">
-        <v>506</v>
-      </c>
-      <c r="L31" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="M31" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="N31" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="O31" s="20" t="s">
-        <v>507</v>
-      </c>
-      <c r="P31" s="20" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q31" s="20" t="s">
-        <v>509</v>
-      </c>
-      <c r="R31" s="20" t="s">
-        <v>510</v>
-      </c>
-      <c r="S31" s="20" t="s">
+      <c r="AA32" s="20" t="s">
         <v>511</v>
       </c>
-      <c r="T31" s="20" t="s">
+      <c r="AB32" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="U31" s="20" t="s">
-        <v>513</v>
-      </c>
-      <c r="V31" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="W31" s="20" t="s">
-        <v>515</v>
-      </c>
-      <c r="X31" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="Y31" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z31" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA31" s="20" t="s">
-        <v>516</v>
-      </c>
-      <c r="AB31" s="20" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="12"/>
-    </row>
-    <row r="35" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+    </row>
+    <row r="36" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="C35" s="15" t="s">
+      <c r="B36" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D36" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E36" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F36" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G36" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="16" t="s">
+      <c r="H36" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I35" s="16" t="s">
+      <c r="I36" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J35" s="17" t="s">
+      <c r="J36" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K35" s="17" t="s">
+      <c r="K36" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L35" s="17" t="s">
+      <c r="L36" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="M35" s="17" t="s">
+      <c r="M36" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N35" s="17" t="s">
+      <c r="N36" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="O35" s="17" t="s">
+      <c r="O36" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="P35" s="17" t="s">
+      <c r="P36" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="Q35" s="17" t="s">
+      <c r="Q36" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="R35" s="18" t="s">
+      <c r="R36" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="S35" s="18" t="s">
+      <c r="S36" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="T35" s="18" t="s">
+      <c r="T36" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="U35" s="15" t="s">
+      <c r="U36" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="V35" s="15" t="s">
+      <c r="V36" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="W35" s="19" t="s">
+      <c r="W36" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="X35" s="19" t="s">
+      <c r="X36" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="Y35" s="19" t="s">
+      <c r="Y36" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="Z35" s="15" t="s">
+      <c r="Z36" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AA35" s="15" t="s">
+      <c r="AA36" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AB35" s="15" t="s">
+      <c r="AB36" s="15" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="14">
-        <v>0</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>518</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>519</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>521</v>
-      </c>
-      <c r="H36" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="I36" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="J36" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="K36" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="L36" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="M36" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="N36" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="O36" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="P36" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q36" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="R36" s="20" t="s">
-        <v>523</v>
-      </c>
-      <c r="S36" s="20" t="s">
-        <v>524</v>
-      </c>
-      <c r="T36" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="U36" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="V36" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="W36" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="X36" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y36" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z36" s="20" t="s">
-        <v>525</v>
-      </c>
-      <c r="AA36" s="20" t="s">
-        <v>524</v>
-      </c>
-      <c r="AB36" s="20" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B37" s="14">
         <v>0</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>526</v>
+        <v>214</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>217</v>
+        <v>513</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>256</v>
+        <v>514</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I37" s="20" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="L37" s="20" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="N37" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="O37" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P37" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Q37" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="R37" s="20" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="S37" s="20" t="s">
-        <v>217</v>
+        <v>519</v>
       </c>
       <c r="T37" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="U37" s="20" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="V37" s="20" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="W37" s="20" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="X37" s="20" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Y37" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Z37" s="20" t="s">
-        <v>218</v>
+        <v>520</v>
       </c>
       <c r="AA37" s="20" t="s">
-        <v>217</v>
+        <v>519</v>
       </c>
       <c r="AB37" s="20" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B38" s="14">
         <v>0</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>259</v>
+        <v>522</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I38" s="20" t="s">
-        <v>275</v>
+        <v>212</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="L38" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="M38" s="20" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="N38" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="O38" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="P38" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Q38" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="R38" s="20" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="S38" s="20" t="s">
-        <v>534</v>
+        <v>212</v>
       </c>
       <c r="T38" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="U38" s="20" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="V38" s="20" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="W38" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="X38" s="20" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="Y38" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Z38" s="20" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AA38" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AB38" s="20" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39" s="14">
         <v>0</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>260</v>
+        <v>526</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I39" s="20" t="s">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K39" s="20" t="s">
-        <v>261</v>
+        <v>527</v>
       </c>
       <c r="L39" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="M39" s="20" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N39" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="O39" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="P39" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Q39" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="R39" s="20" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="S39" s="20" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="T39" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="U39" s="20" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="V39" s="20" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="W39" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="X39" s="20" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="Y39" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Z39" s="20" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AA39" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AB39" s="20" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40" s="14">
         <v>0</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>220</v>
+        <v>530</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>220</v>
+        <v>271</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I40" s="20" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K40" s="20" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="L40" s="20" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="M40" s="20" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N40" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="O40" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="P40" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Q40" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="R40" s="20" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="S40" s="20" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="T40" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="U40" s="20" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="V40" s="20" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="W40" s="20" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="X40" s="20" t="s">
-        <v>540</v>
+        <v>213</v>
       </c>
       <c r="Y40" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Z40" s="20" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AA40" s="20" t="s">
-        <v>540</v>
+        <v>212</v>
       </c>
       <c r="AB40" s="20" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="14">
+        <v>0</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="I41" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="J41" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="K41" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="L41" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="M41" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="N41" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="O41" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="P41" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q41" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="R41" s="20" t="s">
+        <v>533</v>
+      </c>
+      <c r="S41" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="T41" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="U41" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="V41" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="W41" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="X41" s="20" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y41" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z41" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA41" s="20" t="s">
+        <v>535</v>
+      </c>
+      <c r="AB41" s="20" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A43" s="6" t="s">
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A44" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="11"/>
-      <c r="T43" s="11"/>
-      <c r="W43" s="12"/>
-      <c r="X43" s="12"/>
-      <c r="Y43" s="12"/>
-    </row>
-    <row r="44" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+    </row>
+    <row r="45" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="C44" s="15" t="s">
+      <c r="B45" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="C45" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D45" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E45" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F45" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="15" t="s">
+      <c r="G45" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H44" s="16" t="s">
+      <c r="H45" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I44" s="16" t="s">
+      <c r="I45" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J44" s="17" t="s">
+      <c r="J45" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K44" s="17" t="s">
+      <c r="K45" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L44" s="17" t="s">
+      <c r="L45" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="M44" s="17" t="s">
+      <c r="M45" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N44" s="17" t="s">
+      <c r="N45" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="O44" s="17" t="s">
+      <c r="O45" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="P44" s="17" t="s">
+      <c r="P45" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="Q44" s="17" t="s">
+      <c r="Q45" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="R44" s="18" t="s">
+      <c r="R45" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="S44" s="18" t="s">
+      <c r="S45" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="T44" s="18" t="s">
+      <c r="T45" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="U44" s="15" t="s">
+      <c r="U45" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="V44" s="15" t="s">
+      <c r="V45" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="W44" s="19" t="s">
+      <c r="W45" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="X44" s="19" t="s">
+      <c r="X45" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="Y44" s="19" t="s">
+      <c r="Y45" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="Z44" s="15" t="s">
+      <c r="Z45" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AA44" s="15" t="s">
+      <c r="AA45" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AB44" s="15" t="s">
+      <c r="AB45" s="15" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="14">
-        <v>0</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>541</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="F45" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="G45" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="H45" s="20" t="s">
-        <v>542</v>
-      </c>
-      <c r="I45" s="20" t="s">
-        <v>543</v>
-      </c>
-      <c r="J45" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="K45" s="20" t="s">
-        <v>544</v>
-      </c>
-      <c r="L45" s="20" t="s">
-        <v>545</v>
-      </c>
-      <c r="M45" s="20" t="s">
-        <v>546</v>
-      </c>
-      <c r="N45" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="O45" s="20" t="s">
-        <v>547</v>
-      </c>
-      <c r="P45" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q45" s="20" t="s">
-        <v>548</v>
-      </c>
-      <c r="R45" s="20" t="s">
-        <v>549</v>
-      </c>
-      <c r="S45" s="20" t="s">
-        <v>550</v>
-      </c>
-      <c r="T45" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="U45" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="V45" s="20" t="s">
-        <v>551</v>
-      </c>
-      <c r="W45" s="20" t="s">
-        <v>552</v>
-      </c>
-      <c r="X45" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y45" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z45" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA45" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB45" s="20" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B46" s="14">
-        <v>8.0000000000000007E-5</v>
+        <v>0</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>217</v>
+        <v>536</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>554</v>
+        <v>214</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>555</v>
+        <v>215</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="I46" s="20" t="s">
-        <v>217</v>
+        <v>538</v>
       </c>
       <c r="J46" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K46" s="20" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="L46" s="20" t="s">
-        <v>217</v>
+        <v>540</v>
       </c>
       <c r="M46" s="20" t="s">
-        <v>217</v>
+        <v>541</v>
       </c>
       <c r="N46" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="O46" s="20" t="s">
-        <v>217</v>
+        <v>542</v>
       </c>
       <c r="P46" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Q46" s="20" t="s">
-        <v>217</v>
+        <v>543</v>
       </c>
       <c r="R46" s="20" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="S46" s="20" t="s">
-        <v>217</v>
+        <v>545</v>
       </c>
       <c r="T46" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="U46" s="20" t="s">
-        <v>559</v>
+        <v>215</v>
       </c>
       <c r="V46" s="20" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="W46" s="20" t="s">
-        <v>217</v>
+        <v>547</v>
       </c>
       <c r="X46" s="20" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Y46" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Z46" s="20" t="s">
-        <v>561</v>
+        <v>214</v>
       </c>
       <c r="AA46" s="20" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AB46" s="20" t="s">
-        <v>264</v>
+        <v>548</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B47" s="14">
-        <v>4.1399999999999996E-3</v>
+        <v>0</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>220</v>
+        <v>550</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="I47" s="20" t="s">
-        <v>564</v>
+        <v>212</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K47" s="20" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="L47" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="M47" s="20" t="s">
-        <v>566</v>
+        <v>212</v>
       </c>
       <c r="N47" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="O47" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="P47" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Q47" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="R47" s="20" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="S47" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="T47" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="U47" s="20" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="V47" s="20" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="W47" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="X47" s="20" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="Y47" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Z47" s="20" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="AA47" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AB47" s="20" t="s">
-        <v>570</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B48" s="14">
-        <v>6.7879999999999996E-2</v>
-      </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="20"/>
-      <c r="T48" s="20"/>
-      <c r="U48" s="20"/>
-      <c r="V48" s="20"/>
-      <c r="W48" s="20"/>
-      <c r="X48" s="20"/>
-      <c r="Y48" s="20"/>
-      <c r="Z48" s="20"/>
-      <c r="AA48" s="20"/>
-      <c r="AB48" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="I48" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="J48" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="K48" s="20" t="s">
+        <v>560</v>
+      </c>
+      <c r="L48" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="M48" s="20" t="s">
+        <v>561</v>
+      </c>
+      <c r="N48" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="O48" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="P48" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q48" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="R48" s="20" t="s">
+        <v>562</v>
+      </c>
+      <c r="S48" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="T48" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="U48" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="V48" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="W48" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="X48" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y48" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z48" s="20" t="s">
+        <v>564</v>
+      </c>
+      <c r="AA48" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB48" s="20" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B49" s="14">
         <v>0</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>218</v>
+        <v>617</v>
       </c>
       <c r="D49" s="20" t="s">
+        <v>618</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>619</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>620</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>621</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>622</v>
+      </c>
+      <c r="I49" s="20" t="s">
+        <v>622</v>
+      </c>
+      <c r="J49" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="K49" s="20" t="s">
+        <v>623</v>
+      </c>
+      <c r="L49" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="M49" s="20" t="s">
+        <v>622</v>
+      </c>
+      <c r="N49" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="O49" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="P49" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q49" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="R49" s="20" t="s">
+        <v>622</v>
+      </c>
+      <c r="S49" s="20" t="s">
+        <v>624</v>
+      </c>
+      <c r="T49" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="U49" s="20" t="s">
+        <v>625</v>
+      </c>
+      <c r="V49" s="20" t="s">
+        <v>622</v>
+      </c>
+      <c r="W49" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="X49" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y49" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z49" s="20" t="s">
+        <v>626</v>
+      </c>
+      <c r="AA49" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB49" s="20" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="14">
+        <v>0</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="I50" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="J50" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="K50" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="L50" s="20" t="s">
         <v>571</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="M50" s="20" t="s">
         <v>572</v>
       </c>
-      <c r="F49" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="G49" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="H49" s="20" t="s">
+      <c r="N50" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="O50" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="P50" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q50" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="R50" s="20" t="s">
         <v>573</v>
       </c>
-      <c r="I49" s="20" t="s">
+      <c r="S50" s="20" t="s">
         <v>574</v>
       </c>
-      <c r="J49" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="K49" s="20" t="s">
+      <c r="T50" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="U50" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="V50" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="L49" s="20" t="s">
+      <c r="W50" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="X50" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y50" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z50" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA50" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB50" s="20" t="s">
         <v>576</v>
       </c>
-      <c r="M49" s="20" t="s">
-        <v>577</v>
-      </c>
-      <c r="N49" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="O49" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="P49" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q49" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="R49" s="20" t="s">
-        <v>578</v>
-      </c>
-      <c r="S49" s="20" t="s">
-        <v>579</v>
-      </c>
-      <c r="T49" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="U49" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="V49" s="20" t="s">
-        <v>580</v>
-      </c>
-      <c r="W49" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="X49" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y49" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z49" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="AA49" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB49" s="20" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A52" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="11"/>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11"/>
-      <c r="W52" s="12"/>
-      <c r="X52" s="12"/>
-      <c r="Y52" s="12"/>
-    </row>
-    <row r="53" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="5" t="s">
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A53" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="12"/>
+      <c r="Y53" s="12"/>
+    </row>
+    <row r="54" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="C53" s="15" t="s">
+      <c r="B54" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="C54" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D54" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E53" s="15" t="s">
+      <c r="E54" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F54" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="15" t="s">
+      <c r="G54" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H53" s="16" t="s">
+      <c r="H54" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I53" s="16" t="s">
+      <c r="I54" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J53" s="17" t="s">
+      <c r="J54" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K53" s="17" t="s">
+      <c r="K54" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L53" s="17" t="s">
+      <c r="L54" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="M53" s="17" t="s">
+      <c r="M54" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N53" s="17" t="s">
+      <c r="N54" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="O53" s="17" t="s">
+      <c r="O54" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="P53" s="17" t="s">
+      <c r="P54" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="Q53" s="17" t="s">
+      <c r="Q54" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="R53" s="18" t="s">
+      <c r="R54" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="S53" s="18" t="s">
+      <c r="S54" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="T53" s="18" t="s">
+      <c r="T54" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="U53" s="15" t="s">
+      <c r="U54" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="V53" s="15" t="s">
+      <c r="V54" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="W53" s="19" t="s">
+      <c r="W54" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="X53" s="19" t="s">
+      <c r="X54" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="Y53" s="19" t="s">
+      <c r="Y54" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="Z53" s="15" t="s">
+      <c r="Z54" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AA53" s="15" t="s">
+      <c r="AA54" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AB53" s="15" t="s">
+      <c r="AB54" s="15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" s="14">
-        <v>0.49342000000000003</v>
-      </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="20"/>
-      <c r="T54" s="20"/>
-      <c r="U54" s="20"/>
-      <c r="V54" s="20"/>
-      <c r="W54" s="20"/>
-      <c r="X54" s="20"/>
-      <c r="Y54" s="20"/>
-      <c r="Z54" s="20"/>
-      <c r="AA54" s="20"/>
-      <c r="AB54" s="20"/>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B55" s="14">
-        <v>0.37823000000000001</v>
+        <v>0.61278999999999995</v>
       </c>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
@@ -6861,10 +6986,10 @@
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B56" s="14">
-        <v>0.59175999999999995</v>
+        <v>0.96530000000000005</v>
       </c>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
@@ -6895,10 +7020,10 @@
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B57" s="14">
-        <v>0.35466999999999999</v>
+        <v>0.2485</v>
       </c>
       <c r="C57" s="20"/>
       <c r="D57" s="20"/>
@@ -6929,10 +7054,10 @@
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B58" s="14">
-        <v>0.43001</v>
+        <v>2.9700000000000001E-2</v>
       </c>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
@@ -6961,58 +7086,92 @@
       <c r="AA58" s="20"/>
       <c r="AB58" s="20"/>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" s="14">
+        <v>0.35618</v>
+      </c>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="20"/>
+      <c r="T59" s="20"/>
+      <c r="U59" s="20"/>
+      <c r="V59" s="20"/>
+      <c r="W59" s="20"/>
+      <c r="X59" s="20"/>
+      <c r="Y59" s="20"/>
+      <c r="Z59" s="20"/>
+      <c r="AA59" s="20"/>
+      <c r="AB59" s="20"/>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C9:AB13">
+  <conditionalFormatting sqref="C10:AB14">
     <cfRule type="containsText" dxfId="27" priority="21" operator="containsText" text="v">
-      <formula>NOT(ISERROR(SEARCH("v",C9)))</formula>
+      <formula>NOT(ISERROR(SEARCH("v",C10)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="^">
-      <formula>NOT(ISERROR(SEARCH("^",C9)))</formula>
+      <formula>NOT(ISERROR(SEARCH("^",C10)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:AB22">
+  <conditionalFormatting sqref="C19:AB23">
     <cfRule type="containsText" dxfId="25" priority="17" operator="containsText" text="v">
-      <formula>NOT(ISERROR(SEARCH("v",C18)))</formula>
+      <formula>NOT(ISERROR(SEARCH("v",C19)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="24" priority="18" operator="containsText" text="^">
-      <formula>NOT(ISERROR(SEARCH("^",C18)))</formula>
+      <formula>NOT(ISERROR(SEARCH("^",C19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:AB31">
+  <conditionalFormatting sqref="C28:AB32">
     <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="v">
-      <formula>NOT(ISERROR(SEARCH("v",C27)))</formula>
+      <formula>NOT(ISERROR(SEARCH("v",C28)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="^">
-      <formula>NOT(ISERROR(SEARCH("^",C27)))</formula>
+      <formula>NOT(ISERROR(SEARCH("^",C28)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36:AB40">
+  <conditionalFormatting sqref="C37:AB41">
     <cfRule type="containsText" dxfId="21" priority="9" operator="containsText" text="v">
-      <formula>NOT(ISERROR(SEARCH("v",C36)))</formula>
+      <formula>NOT(ISERROR(SEARCH("v",C37)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="20" priority="10" operator="containsText" text="^">
-      <formula>NOT(ISERROR(SEARCH("^",C36)))</formula>
+      <formula>NOT(ISERROR(SEARCH("^",C37)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C45:AB49">
+  <conditionalFormatting sqref="C46:AB50">
     <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="v">
-      <formula>NOT(ISERROR(SEARCH("v",C45)))</formula>
+      <formula>NOT(ISERROR(SEARCH("v",C46)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="^">
-      <formula>NOT(ISERROR(SEARCH("^",C45)))</formula>
+      <formula>NOT(ISERROR(SEARCH("^",C46)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C54:AB58">
+  <conditionalFormatting sqref="C55:AB59">
     <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="v">
-      <formula>NOT(ISERROR(SEARCH("v",C54)))</formula>
+      <formula>NOT(ISERROR(SEARCH("v",C55)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="^">
-      <formula>NOT(ISERROR(SEARCH("^",C54)))</formula>
+      <formula>NOT(ISERROR(SEARCH("^",C55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7022,7 +7181,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="33" operator="containsText" id="{F0F72219-E091-4A97-8B9D-5E5344D909D9}">
-            <xm:f>NOT(ISERROR(SEARCH("-",C9)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("-",C10)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <fill>
@@ -7033,7 +7192,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="34" operator="containsText" id="{04401824-7F9B-45E0-9778-6813322A16CC}">
-            <xm:f>NOT(ISERROR(SEARCH("+",C9)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("+",C10)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <fill>
@@ -7043,11 +7202,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C9:AB13</xm:sqref>
+          <xm:sqref>C10:AB14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="19" operator="containsText" id="{B2FD2BFC-7DF5-4A2B-924E-2BC14002D67D}">
-            <xm:f>NOT(ISERROR(SEARCH("-",C18)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("-",C19)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <fill>
@@ -7058,7 +7217,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="20" operator="containsText" id="{6ED6F0C1-DEE8-4E18-AEED-B1326F715814}">
-            <xm:f>NOT(ISERROR(SEARCH("+",C18)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("+",C19)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <fill>
@@ -7068,11 +7227,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C18:AB22</xm:sqref>
+          <xm:sqref>C19:AB23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="15" operator="containsText" id="{95D29022-354D-4AB5-9208-F3F87289D56F}">
-            <xm:f>NOT(ISERROR(SEARCH("-",C27)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("-",C28)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <fill>
@@ -7083,7 +7242,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="16" operator="containsText" id="{32B84CD6-7CB0-42E6-BBD8-D00D4B166B5D}">
-            <xm:f>NOT(ISERROR(SEARCH("+",C27)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("+",C28)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <fill>
@@ -7093,11 +7252,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C27:AB31</xm:sqref>
+          <xm:sqref>C28:AB32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="11" operator="containsText" id="{0D824E47-E849-47F8-A686-9E1CD4968E20}">
-            <xm:f>NOT(ISERROR(SEARCH("-",C36)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("-",C37)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <fill>
@@ -7108,7 +7267,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="12" operator="containsText" id="{33C779F2-EA76-4EEB-BFDF-20EBE09FA755}">
-            <xm:f>NOT(ISERROR(SEARCH("+",C36)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("+",C37)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <fill>
@@ -7118,11 +7277,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C36:AB40</xm:sqref>
+          <xm:sqref>C37:AB41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="7" operator="containsText" id="{27F801E6-DF9D-4AC3-B693-B20EC7CAA953}">
-            <xm:f>NOT(ISERROR(SEARCH("-",C45)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("-",C46)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <fill>
@@ -7133,7 +7292,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="8" operator="containsText" id="{8CEC4979-230B-4829-AFC2-41643A8A5476}">
-            <xm:f>NOT(ISERROR(SEARCH("+",C45)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("+",C46)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <fill>
@@ -7143,11 +7302,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C45:AB49</xm:sqref>
+          <xm:sqref>C46:AB50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="3" operator="containsText" id="{87C68840-F462-4083-980A-59B5ACF555F3}">
-            <xm:f>NOT(ISERROR(SEARCH("-",C54)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("-",C55)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <fill>
@@ -7158,7 +7317,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="4" operator="containsText" id="{18B2FEE7-CB7B-4838-85BD-E52C6DB6B5C7}">
-            <xm:f>NOT(ISERROR(SEARCH("+",C54)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("+",C55)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <fill>
@@ -7168,7 +7327,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C54:AB58</xm:sqref>
+          <xm:sqref>C55:AB59</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7196,24 +7355,24 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K1" s="2"/>
       <c r="M1" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="S1" s="2"/>
       <c r="U1" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="W1" s="2"/>
     </row>
@@ -7250,7 +7409,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I4" s="1"/>
       <c r="K4" s="2"/>
@@ -7261,10 +7420,10 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I5" s="1"/>
       <c r="K5" s="2"/>
@@ -7357,7 +7516,7 @@
         <v>0.101481284665714</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J8">
         <v>335549</v>
@@ -7366,7 +7525,7 @@
         <v>0.117105518476587</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N8">
         <v>347976</v>
@@ -7375,7 +7534,7 @@
         <v>0.114204359165974</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="R8">
         <v>338302</v>
@@ -7404,7 +7563,7 @@
         <v>9.0771578496465999E-2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F9">
         <v>17040</v>
@@ -7422,7 +7581,7 @@
         <v>8.8662979399418404E-2</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N9">
         <v>312820</v>
@@ -7431,7 +7590,7 @@
         <v>0.102666297774272</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="R9">
         <v>245709</v>
@@ -7440,7 +7599,7 @@
         <v>7.5905292694236404E-2</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="V9">
         <v>244173</v>
@@ -7478,7 +7637,7 @@
         <v>8.1890697002396901E-2</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N10">
         <v>300298</v>
@@ -7525,7 +7684,7 @@
         <v>7.5071683992604596E-2</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J11">
         <v>230729</v>
@@ -7534,7 +7693,7 @@
         <v>8.0523676639133096E-2</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N11">
         <v>202342</v>
@@ -7543,7 +7702,7 @@
         <v>6.6407851237906296E-2</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="R11">
         <v>232890</v>
@@ -7552,7 +7711,7 @@
         <v>7.1945201907788095E-2</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="V11">
         <v>227542</v>
@@ -7590,7 +7749,7 @@
         <v>7.5709266143543702E-2</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N12">
         <v>201949</v>
@@ -7599,7 +7758,7 @@
         <v>6.6278870178430302E-2</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="R12">
         <v>219774</v>
@@ -7608,7 +7767,7 @@
         <v>6.7893360831646807E-2</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="V12">
         <v>214727</v>
@@ -7628,7 +7787,7 @@
         <v>6.2841347183551E-2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F13">
         <v>12512</v>
@@ -7637,7 +7796,7 @@
         <v>6.9259468376011601E-2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J13">
         <v>181716</v>
@@ -7646,7 +7805,7 @@
         <v>6.3418297761255502E-2</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N13">
         <v>194475</v>
@@ -7655,7 +7814,7 @@
         <v>6.38259326758253E-2</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="R13">
         <v>190201</v>
@@ -7664,7 +7823,7 @@
         <v>5.8757565151201001E-2</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="V13">
         <v>210181</v>
@@ -7693,7 +7852,7 @@
         <v>6.1316107033334399E-2</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J14">
         <v>166105</v>
@@ -7711,7 +7870,7 @@
         <v>5.7955161195145703E-2</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="R14">
         <v>177919</v>
@@ -7749,7 +7908,7 @@
         <v>5.7402548518161699E-2</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J15">
         <v>160866</v>
@@ -7776,7 +7935,7 @@
         <v>5.3165122409405803E-2</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="V15">
         <v>194390</v>
@@ -7805,7 +7964,7 @@
         <v>5.6051900317734403E-2</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J16">
         <v>152971</v>
@@ -7832,7 +7991,7 @@
         <v>4.2346620237518902E-2</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="V16">
         <v>168039</v>
@@ -7870,7 +8029,7 @@
         <v>3.5116055387184E-2</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="N17">
         <v>122041</v>
@@ -7879,7 +8038,7 @@
         <v>4.0053377810466098E-2</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="R17">
         <v>106681</v>
@@ -7888,7 +8047,7 @@
         <v>3.2956271564793402E-2</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="V17">
         <v>121554</v>
@@ -7917,7 +8076,7 @@
         <v>3.6749809027201097E-2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J18">
         <v>99148</v>
@@ -7935,7 +8094,7 @@
         <v>3.10841071376411E-2</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R18">
         <v>87397</v>
@@ -7973,7 +8132,7 @@
         <v>3.5803248198213102E-2</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J19">
         <v>76947</v>
@@ -7991,7 +8150,7 @@
         <v>2.54601391091905E-2</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="R19">
         <v>85388</v>
@@ -8000,7 +8159,7 @@
         <v>2.63783627485174E-2</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="V19">
         <v>86774</v>
@@ -8038,7 +8197,7 @@
         <v>2.27982142533074E-2</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N20">
         <v>75932</v>
@@ -8094,7 +8253,7 @@
         <v>1.5789661040373298E-2</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N21">
         <v>69661</v>
@@ -8103,7 +8262,7 @@
         <v>2.2862467135265001E-2</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="R21">
         <v>76118</v>
@@ -8112,7 +8271,7 @@
         <v>2.35146415853708E-2</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="V21">
         <v>64957</v>
@@ -8141,7 +8300,7 @@
         <v>8.5688664518914597E-3</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J22">
         <v>42481</v>
@@ -8150,7 +8309,7 @@
         <v>1.48257319509338E-2</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N22">
         <v>52873</v>
@@ -8168,7 +8327,7 @@
         <v>1.8737756974180401E-2</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="V22">
         <v>54820</v>
@@ -8197,7 +8356,7 @@
         <v>5.2974193762662302E-3</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J23">
         <v>40417</v>
@@ -8206,7 +8365,7 @@
         <v>1.41054026096582E-2</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N23">
         <v>34866</v>
@@ -8215,7 +8374,7 @@
         <v>1.1442884528475699E-2</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="R23">
         <v>55997</v>
@@ -8253,7 +8412,7 @@
         <v>2.2031064908609801E-3</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J24">
         <v>29564</v>
@@ -8280,7 +8439,7 @@
         <v>1.09581356093995E-2</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="V24">
         <v>34872</v>
@@ -8300,7 +8459,7 @@
         <v>6.40527950310559E-3</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F25">
         <v>30</v>
@@ -8309,7 +8468,7 @@
         <v>1.6606330333122899E-4</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J25">
         <v>28405</v>
@@ -8327,7 +8486,7 @@
         <v>8.3309292970466606E-3</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="R25">
         <v>32837</v>
@@ -8336,7 +8495,7 @@
         <v>1.01441220964663E-2</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="V25">
         <v>33779</v>
@@ -8356,7 +8515,7 @@
         <v>5.8631398586421E-3</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F26">
         <v>10</v>
@@ -8374,7 +8533,7 @@
         <v>9.6221900524751502E-3</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N26">
         <v>19520</v>
@@ -8412,7 +8571,7 @@
         <v>5.5954165774255698E-3</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F27">
         <v>7</v>
@@ -8421,7 +8580,7 @@
         <v>3.8748104110620301E-5</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J27">
         <v>12909</v>
@@ -8430,7 +8589,7 @@
         <v>4.50519935393717E-3</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N27">
         <v>15605</v>
@@ -8439,7 +8598,7 @@
         <v>5.1214998298303302E-3</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="R27">
         <v>25658</v>
@@ -8468,7 +8627,7 @@
         <v>2.1886378239451701E-3</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J28">
         <v>2407</v>
@@ -8477,7 +8636,7 @@
         <v>8.4003523471429004E-4</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N28">
         <v>13125</v>
@@ -8495,7 +8654,7 @@
         <v>5.6458865132325798E-3</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="V28">
         <v>24653</v>
@@ -8515,7 +8674,7 @@
         <v>1.8539837224245E-3</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J29">
         <v>1810</v>
@@ -8524,7 +8683,7 @@
         <v>6.3168416071161804E-4</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N29">
         <v>10190</v>
@@ -8533,7 +8692,7 @@
         <v>3.344318056134E-3</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R29">
         <v>17077</v>
@@ -8542,7 +8701,7 @@
         <v>5.2754871955828803E-3</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V29">
         <v>15177</v>
@@ -8571,7 +8730,7 @@
         <v>7.6779290252240897E-6</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N30">
         <v>7895</v>
@@ -8580,7 +8739,7 @@
         <v>2.5911080523236402E-3</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="R30">
         <v>12656</v>
@@ -8589,7 +8748,7 @@
         <v>3.9097362503540999E-3</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="V30">
         <v>13642</v>
@@ -8609,7 +8768,7 @@
         <v>3.7481259370314798E-4</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N31">
         <v>6096</v>
@@ -8627,7 +8786,7 @@
         <v>3.5652865095872799E-3</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="V31">
         <v>13334</v>
@@ -8647,7 +8806,7 @@
         <v>2.6772328121653398E-4</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N32">
         <v>3581</v>
@@ -8656,7 +8815,7 @@
         <v>1.17527016280822E-3</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="R32">
         <v>11447</v>
@@ -8665,7 +8824,7 @@
         <v>3.5362476973612002E-3</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="V32">
         <v>8891</v>
@@ -8676,7 +8835,7 @@
     </row>
     <row r="33" spans="13:23" x14ac:dyDescent="0.35">
       <c r="M33" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N33">
         <v>3207</v>
@@ -8685,7 +8844,7 @@
         <v>1.0525248288539399E-3</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R33">
         <v>1229</v>
@@ -8694,7 +8853,7 @@
         <v>3.79667023679297E-4</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="V33">
         <v>8287</v>
@@ -8714,7 +8873,7 @@
         <v>3.39354746814775E-4</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="R34">
         <v>1205</v>
@@ -8723,7 +8882,7 @@
         <v>3.72252858855617E-4</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="V34">
         <v>4288</v>
@@ -8743,7 +8902,7 @@
         <v>2.9537647208249198E-6</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="R35">
         <v>42</v>
@@ -8752,7 +8911,7 @@
         <v>1.2974788441440599E-5</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="V35">
         <v>2805</v>
@@ -8763,7 +8922,7 @@
     </row>
     <row r="36" spans="13:23" x14ac:dyDescent="0.35">
       <c r="U36" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="V36">
         <v>2542</v>
@@ -8774,7 +8933,7 @@
     </row>
     <row r="37" spans="13:23" x14ac:dyDescent="0.35">
       <c r="U37" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="V37">
         <v>2011</v>
@@ -8785,7 +8944,7 @@
     </row>
     <row r="38" spans="13:23" x14ac:dyDescent="0.35">
       <c r="U38" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="V38">
         <v>1460</v>
@@ -8796,7 +8955,7 @@
     </row>
     <row r="39" spans="13:23" x14ac:dyDescent="0.35">
       <c r="U39" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="V39">
         <v>1444</v>
@@ -8818,7 +8977,7 @@
     </row>
     <row r="41" spans="13:23" x14ac:dyDescent="0.35">
       <c r="U41" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="V41">
         <v>1148</v>
@@ -8829,7 +8988,7 @@
     </row>
     <row r="42" spans="13:23" x14ac:dyDescent="0.35">
       <c r="U42" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="V42">
         <v>776</v>
@@ -8840,7 +8999,7 @@
     </row>
     <row r="43" spans="13:23" x14ac:dyDescent="0.35">
       <c r="U43" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="V43">
         <v>704</v>
@@ -8851,7 +9010,7 @@
     </row>
     <row r="44" spans="13:23" x14ac:dyDescent="0.35">
       <c r="U44" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="V44">
         <v>541</v>
@@ -8874,7 +9033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A33474A-8ED5-4CC5-B00E-77A7000CFA74}">
   <dimension ref="A1:AG95"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="D2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AG97" sqref="AG97"/>
     </sheetView>
   </sheetViews>
@@ -8895,17 +9054,17 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K1" s="2"/>
       <c r="M1" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
@@ -8928,7 +9087,7 @@
       <c r="I3" s="1"/>
       <c r="K3" s="2"/>
       <c r="Q3" s="25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="R3" s="26"/>
       <c r="S3" s="26"/>
@@ -8948,12 +9107,12 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I4" s="1"/>
       <c r="K4" s="2"/>
       <c r="Q4" s="25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R4" s="26"/>
       <c r="S4" s="26"/>
@@ -8972,10 +9131,10 @@
     </row>
     <row r="5" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I5" s="1"/>
       <c r="K5" s="2"/>
@@ -8985,43 +9144,43 @@
       <c r="I6" s="1"/>
       <c r="K6" s="2"/>
       <c r="Q6" s="29" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="R6" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="S6" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="T6" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="U6" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="V6" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="S6" s="31" t="s">
+      <c r="W6" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="T6" s="31" t="s">
+      <c r="X6" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="U6" s="31" t="s">
+      <c r="Y6" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="V6" s="31" t="s">
+      <c r="Z6" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="W6" s="31" t="s">
+      <c r="AA6" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="X6" s="31" t="s">
+      <c r="AB6" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="Y6" s="31" t="s">
+      <c r="AC6" s="32" t="s">
         <v>109</v>
-      </c>
-      <c r="Z6" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA6" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB6" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC6" s="32" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
@@ -9062,46 +9221,46 @@
         <v>0.116278230196074</v>
       </c>
       <c r="Q7" s="43" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="R7" s="33">
         <v>0.23252090375378001</v>
       </c>
       <c r="S7" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="T7" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="U7" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="V7" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="W7" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="X7" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Y7" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Z7" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AA7" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AB7" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AC7" s="35" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AF7">
         <v>875</v>
@@ -9130,7 +9289,7 @@
         <v>0.101481284665714</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J8">
         <v>335549</v>
@@ -9139,7 +9298,7 @@
         <v>0.117105518476587</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N8">
         <v>347976</v>
@@ -9154,40 +9313,40 @@
         <v>3.8427326098558978E-2</v>
       </c>
       <c r="S8" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="T8" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="U8" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="V8" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="W8" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="X8" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Y8" s="37">
         <v>7.6498843622131293E-3</v>
       </c>
       <c r="Z8" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AA8" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AB8" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AC8" s="38" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AF8">
         <v>822</v>
@@ -9207,7 +9366,7 @@
         <v>9.0771578496465999E-2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F9">
         <v>17040</v>
@@ -9225,7 +9384,7 @@
         <v>8.8662979399418404E-2</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N9">
         <v>312820</v>
@@ -9240,40 +9399,40 @@
         <v>7.9879025084504535E-2</v>
       </c>
       <c r="S9" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="T9" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="U9" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="V9" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="W9" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="X9" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Y9" s="34">
         <v>0.31969400462551145</v>
       </c>
       <c r="Z9" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AA9" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AB9" s="34">
         <v>1.2453300124533001E-3</v>
       </c>
       <c r="AC9" s="35" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AF9">
         <v>683</v>
@@ -9311,7 +9470,7 @@
         <v>8.1890697002396901E-2</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N10">
         <v>300298</v>
@@ -9323,43 +9482,43 @@
         <v>15</v>
       </c>
       <c r="R10" s="36" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="S10" s="37">
         <v>0.45970467888276106</v>
       </c>
       <c r="T10" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="U10" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="V10" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="W10" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="X10" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Y10" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Z10" s="37">
         <v>7.2407045009784732E-2</v>
       </c>
       <c r="AA10" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AB10" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AC10" s="38" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AF10">
         <v>670</v>
@@ -9388,7 +9547,7 @@
         <v>7.5071683992604596E-2</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J11">
         <v>230729</v>
@@ -9397,7 +9556,7 @@
         <v>8.0523676639133096E-2</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N11">
         <v>202342</v>
@@ -9409,43 +9568,43 @@
         <v>21</v>
       </c>
       <c r="R11" s="33" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="S11" s="34">
         <v>3.9494751823518949E-2</v>
       </c>
       <c r="T11" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="U11" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="V11" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="W11" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="X11" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Y11" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Z11" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AA11" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AB11" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AC11" s="35">
         <v>0.51521081658067958</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AF11">
         <v>572</v>
@@ -9483,7 +9642,7 @@
         <v>7.5709266143543702E-2</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N12">
         <v>201949</v>
@@ -9495,43 +9654,43 @@
         <v>12</v>
       </c>
       <c r="R12" s="36" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="S12" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="T12" s="37">
         <v>0.19996441914250132</v>
       </c>
       <c r="U12" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="V12" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="W12" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="X12" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Y12" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Z12" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AA12" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AB12" s="37">
         <v>0.12880270414516989</v>
       </c>
       <c r="AC12" s="38" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AF12">
         <v>462</v>
@@ -9551,7 +9710,7 @@
         <v>6.2841347183551E-2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F13">
         <v>12512</v>
@@ -9560,7 +9719,7 @@
         <v>6.9259468376011601E-2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J13">
         <v>181716</v>
@@ -9569,7 +9728,7 @@
         <v>6.3418297761255502E-2</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N13">
         <v>194475</v>
@@ -9581,43 +9740,43 @@
         <v>18</v>
       </c>
       <c r="R13" s="33" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="S13" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="T13" s="34">
         <v>4.2697028998398862E-2</v>
       </c>
       <c r="U13" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="V13" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="W13" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="X13" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Y13" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Z13" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AA13" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AB13" s="34">
         <v>7.6143035047144633E-2</v>
       </c>
       <c r="AC13" s="35" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AF13">
         <v>451</v>
@@ -9646,7 +9805,7 @@
         <v>6.1316107033334399E-2</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J14">
         <v>166105</v>
@@ -9667,43 +9826,43 @@
         <v>20</v>
       </c>
       <c r="R14" s="36" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="S14" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="T14" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="U14" s="37">
         <v>0.24995552392812667</v>
       </c>
       <c r="V14" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="W14" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="X14" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Y14" s="37">
         <v>9.9626400996264009E-3</v>
       </c>
       <c r="Z14" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AA14" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AB14" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AC14" s="38" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AF14">
         <v>426</v>
@@ -9732,7 +9891,7 @@
         <v>5.7402548518161699E-2</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J15">
         <v>160866</v>
@@ -9753,43 +9912,43 @@
         <v>11</v>
       </c>
       <c r="R15" s="33" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="S15" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="T15" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="U15" s="34">
         <v>0.10674257249599715</v>
       </c>
       <c r="V15" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="W15" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="X15" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Y15" s="34">
         <v>6.2266500622665004E-3</v>
       </c>
       <c r="Z15" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AA15" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AB15" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AC15" s="35" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AF15">
         <v>411</v>
@@ -9818,7 +9977,7 @@
         <v>5.6051900317734403E-2</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J16">
         <v>152971</v>
@@ -9839,43 +9998,43 @@
         <v>16</v>
       </c>
       <c r="R16" s="36" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="S16" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="T16" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="U16" s="37">
         <v>1.8857854474292831E-2</v>
       </c>
       <c r="V16" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="W16" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="X16" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Y16" s="37">
         <v>5.3371286247998575E-4</v>
       </c>
       <c r="Z16" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AA16" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AB16" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AC16" s="38" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AF16">
         <v>395</v>
@@ -9913,7 +10072,7 @@
         <v>3.5116055387184E-2</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="N17">
         <v>122041</v>
@@ -9925,43 +10084,43 @@
         <v>9</v>
       </c>
       <c r="R17" s="33" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="S17" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="T17" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="U17" s="34">
         <v>2.8464685998932575E-3</v>
       </c>
       <c r="V17" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="W17" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="X17" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Y17" s="34">
         <v>1.7790428749332859E-4</v>
       </c>
       <c r="Z17" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AA17" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AB17" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AC17" s="35" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AF17">
         <v>382</v>
@@ -9990,7 +10149,7 @@
         <v>3.6749809027201097E-2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J18">
         <v>99148</v>
@@ -10008,46 +10167,46 @@
         <v>3.10841071376411E-2</v>
       </c>
       <c r="Q18" s="45" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="R18" s="36" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="S18" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="T18" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="U18" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="V18" s="37">
         <v>0.20138765344244797</v>
       </c>
       <c r="W18" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="X18" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Y18" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Z18" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AA18" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AB18" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AC18" s="38" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AF18">
         <v>377</v>
@@ -10076,7 +10235,7 @@
         <v>3.5803248198213102E-2</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J19">
         <v>76947</v>
@@ -10094,46 +10253,46 @@
         <v>2.54601391091905E-2</v>
       </c>
       <c r="Q19" s="46" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="R19" s="33" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="S19" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="T19" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="U19" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="V19" s="34">
         <v>0.15210816580679595</v>
       </c>
       <c r="W19" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="X19" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Y19" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Z19" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AA19" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AB19" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AC19" s="35" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AF19">
         <v>308</v>
@@ -10171,7 +10330,7 @@
         <v>2.27982142533074E-2</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N20">
         <v>75932</v>
@@ -10180,46 +10339,46 @@
         <v>2.4920584753519801E-2</v>
       </c>
       <c r="Q20" s="45" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R20" s="36" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="S20" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="T20" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="U20" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="V20" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="W20" s="37">
         <v>1.779042874933286E-2</v>
       </c>
       <c r="X20" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Y20" s="37">
         <v>8.539405799679772E-3</v>
       </c>
       <c r="Z20" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AA20" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AB20" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AC20" s="38" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AE20" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AF20">
         <v>281</v>
@@ -10257,7 +10416,7 @@
         <v>1.5789661040373298E-2</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N21">
         <v>69661</v>
@@ -10266,46 +10425,46 @@
         <v>2.2862467135265001E-2</v>
       </c>
       <c r="Q21" s="46" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="R21" s="33" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="S21" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="T21" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="U21" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="V21" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="W21" s="34">
         <v>1.0496352962106386E-2</v>
       </c>
       <c r="X21" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Y21" s="34">
         <v>5.1592243373065295E-3</v>
       </c>
       <c r="Z21" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AA21" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AB21" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AC21" s="35" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AF21">
         <v>260</v>
@@ -10334,7 +10493,7 @@
         <v>8.5688664518914597E-3</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J22">
         <v>42481</v>
@@ -10343,7 +10502,7 @@
         <v>1.48257319509338E-2</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N22">
         <v>52873</v>
@@ -10352,46 +10511,46 @@
         <v>1.7352711342686199E-2</v>
       </c>
       <c r="Q22" s="45" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="R22" s="36" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="S22" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="T22" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="U22" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="V22" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="W22" s="37">
         <v>1.9569471624266144E-3</v>
       </c>
       <c r="X22" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Y22" s="37">
         <v>3.5580857498665718E-4</v>
       </c>
       <c r="Z22" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AA22" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AB22" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AC22" s="38" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AF22">
         <v>260</v>
@@ -10420,7 +10579,7 @@
         <v>5.2974193762662302E-3</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J23">
         <v>40417</v>
@@ -10429,7 +10588,7 @@
         <v>1.41054026096582E-2</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N23">
         <v>34866</v>
@@ -10438,46 +10597,46 @@
         <v>1.1442884528475699E-2</v>
       </c>
       <c r="Q23" s="46" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="R23" s="33" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="S23" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="T23" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="U23" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="V23" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="W23" s="34">
         <v>5.3371286247998575E-4</v>
       </c>
       <c r="X23" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Y23" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Z23" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AA23" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AB23" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AC23" s="35" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AF23">
         <v>249</v>
@@ -10506,7 +10665,7 @@
         <v>2.2031064908609801E-3</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J24">
         <v>29564</v>
@@ -10527,43 +10686,43 @@
         <v>8</v>
       </c>
       <c r="R24" s="36" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="S24" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="T24" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="U24" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="V24" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="W24" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="X24" s="37">
         <v>0.34495641344956413</v>
       </c>
       <c r="Y24" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Z24" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AA24" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AB24" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AC24" s="38" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AE24" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AF24">
         <v>239</v>
@@ -10583,7 +10742,7 @@
         <v>6.40527950310559E-3</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F25">
         <v>30</v>
@@ -10592,7 +10751,7 @@
         <v>1.6606330333122899E-4</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J25">
         <v>28405</v>
@@ -10610,46 +10769,46 @@
         <v>8.3309292970466606E-3</v>
       </c>
       <c r="Q25" s="46" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="R25" s="33" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="S25" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="T25" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="U25" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="V25" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="W25" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="X25" s="34">
         <v>0.12648994840775662</v>
       </c>
       <c r="Y25" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Z25" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AA25" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AB25" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AC25" s="35" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AF25">
         <v>204</v>
@@ -10669,7 +10828,7 @@
         <v>5.8631398586421E-3</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F26">
         <v>10</v>
@@ -10687,7 +10846,7 @@
         <v>9.6221900524751502E-3</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N26">
         <v>19520</v>
@@ -10696,46 +10855,46 @@
         <v>6.4063874833891702E-3</v>
       </c>
       <c r="Q26" s="45" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R26" s="36" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="S26" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="T26" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="U26" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="V26" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="W26" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="X26" s="37">
         <v>2.8464685998932575E-3</v>
       </c>
       <c r="Y26" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Z26" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AA26" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AB26" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AC26" s="38" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AF26">
         <v>196</v>
@@ -10755,7 +10914,7 @@
         <v>5.5954165774255698E-3</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F27">
         <v>7</v>
@@ -10764,7 +10923,7 @@
         <v>3.8748104110620301E-5</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J27">
         <v>12909</v>
@@ -10773,7 +10932,7 @@
         <v>4.50519935393717E-3</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N27">
         <v>15605</v>
@@ -10785,43 +10944,43 @@
         <v>6</v>
       </c>
       <c r="R27" s="33" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="S27" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="T27" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="U27" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="V27" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="W27" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="X27" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Y27" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Z27" s="34">
         <v>0.22558263654154065</v>
       </c>
       <c r="AA27" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AB27" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AC27" s="35" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AF27">
         <v>168</v>
@@ -10841,7 +11000,7 @@
         <v>2.1886378239451701E-3</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J28">
         <v>2407</v>
@@ -10850,7 +11009,7 @@
         <v>8.4003523471429004E-4</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N28">
         <v>13125</v>
@@ -10862,43 +11021,43 @@
         <v>10</v>
       </c>
       <c r="R28" s="36" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="S28" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="T28" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="U28" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="V28" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="W28" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="X28" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Y28" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Z28" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AA28" s="37">
         <v>2.5796121686532645E-2</v>
       </c>
       <c r="AB28" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AC28" s="38" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AE28" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AF28">
         <v>153</v>
@@ -10918,7 +11077,7 @@
         <v>1.8539837224245E-3</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J29">
         <v>1810</v>
@@ -10927,7 +11086,7 @@
         <v>6.3168416071161804E-4</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N29">
         <v>10190</v>
@@ -10936,46 +11095,46 @@
         <v>3.344318056134E-3</v>
       </c>
       <c r="Q29" s="46" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="R29" s="33" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="S29" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="T29" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="U29" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="V29" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="W29" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="X29" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Y29" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Z29" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AA29" s="34">
         <v>6.4935064935064929E-2</v>
       </c>
       <c r="AB29" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AC29" s="35" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AE29" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AF29">
         <v>151</v>
@@ -11004,7 +11163,7 @@
         <v>7.6779290252240897E-6</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N30">
         <v>7895</v>
@@ -11013,46 +11172,46 @@
         <v>2.5911080523236402E-3</v>
       </c>
       <c r="Q30" s="45" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="R30" s="36" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="S30" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="T30" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="U30" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="V30" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="W30" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="X30" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Y30" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Z30" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AA30" s="37">
         <v>1.0674257249599715E-3</v>
       </c>
       <c r="AB30" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AC30" s="38" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AF30">
         <v>140</v>
@@ -11072,7 +11231,7 @@
         <v>3.7481259370314798E-4</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N31">
         <v>6096</v>
@@ -11084,43 +11243,43 @@
         <v>13</v>
       </c>
       <c r="R31" s="33" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="S31" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="T31" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="U31" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="V31" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="W31" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="X31" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Y31" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Z31" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AA31" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AB31" s="34">
         <v>8.7884718021704319E-2</v>
       </c>
       <c r="AC31" s="35" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AF31">
         <v>115</v>
@@ -11140,7 +11299,7 @@
         <v>2.6772328121653398E-4</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N32">
         <v>3581</v>
@@ -11152,43 +11311,43 @@
         <v>14</v>
       </c>
       <c r="R32" s="36" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="S32" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="T32" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="U32" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="V32" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="W32" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="X32" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Y32" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Z32" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AA32" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AB32" s="37">
         <v>7.2940757872264721E-3</v>
       </c>
       <c r="AC32" s="38" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AE32" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AF32">
         <v>112</v>
@@ -11199,7 +11358,7 @@
     </row>
     <row r="33" spans="13:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M33" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N33">
         <v>3207</v>
@@ -11208,7 +11367,7 @@
         <v>1.0525248288539399E-3</v>
       </c>
       <c r="Q33" s="39" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="R33" s="40">
         <v>0.64917274506315603</v>
@@ -11247,7 +11406,7 @@
         <v>0.48478918341932042</v>
       </c>
       <c r="AE33" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AF33">
         <v>103</v>
@@ -11267,7 +11426,7 @@
         <v>3.39354746814775E-4</v>
       </c>
       <c r="AE34" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AF34">
         <v>100</v>
@@ -11287,7 +11446,7 @@
         <v>2.9537647208249198E-6</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF35">
         <v>81</v>
@@ -11298,7 +11457,7 @@
     </row>
     <row r="36" spans="13:33" x14ac:dyDescent="0.35">
       <c r="AE36" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AF36">
         <v>74</v>
@@ -11309,7 +11468,7 @@
     </row>
     <row r="37" spans="13:33" x14ac:dyDescent="0.35">
       <c r="AE37" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AF37">
         <v>70</v>
@@ -11320,7 +11479,7 @@
     </row>
     <row r="38" spans="13:33" x14ac:dyDescent="0.35">
       <c r="AE38" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AF38">
         <v>69</v>
@@ -11331,7 +11490,7 @@
     </row>
     <row r="39" spans="13:33" x14ac:dyDescent="0.35">
       <c r="AE39" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AF39">
         <v>67</v>
@@ -11342,7 +11501,7 @@
     </row>
     <row r="40" spans="13:33" x14ac:dyDescent="0.35">
       <c r="AE40" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AF40">
         <v>63</v>
@@ -11353,7 +11512,7 @@
     </row>
     <row r="41" spans="13:33" x14ac:dyDescent="0.35">
       <c r="AE41" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AF41">
         <v>63</v>
@@ -11364,7 +11523,7 @@
     </row>
     <row r="42" spans="13:33" x14ac:dyDescent="0.35">
       <c r="AE42" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AF42">
         <v>52</v>
@@ -11375,7 +11534,7 @@
     </row>
     <row r="43" spans="13:33" x14ac:dyDescent="0.35">
       <c r="AE43" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AF43">
         <v>52</v>
@@ -11386,7 +11545,7 @@
     </row>
     <row r="44" spans="13:33" x14ac:dyDescent="0.35">
       <c r="AE44" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AF44">
         <v>42</v>
@@ -11397,7 +11556,7 @@
     </row>
     <row r="45" spans="13:33" x14ac:dyDescent="0.35">
       <c r="AE45" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AF45">
         <v>38</v>
@@ -11408,7 +11567,7 @@
     </row>
     <row r="46" spans="13:33" x14ac:dyDescent="0.35">
       <c r="AE46" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AF46">
         <v>36</v>
@@ -11419,7 +11578,7 @@
     </row>
     <row r="47" spans="13:33" x14ac:dyDescent="0.35">
       <c r="AE47" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AF47">
         <v>36</v>
@@ -11430,7 +11589,7 @@
     </row>
     <row r="48" spans="13:33" x14ac:dyDescent="0.35">
       <c r="AE48" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AF48">
         <v>35</v>
@@ -11441,7 +11600,7 @@
     </row>
     <row r="49" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE49" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AF49">
         <v>34</v>
@@ -11452,7 +11611,7 @@
     </row>
     <row r="50" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE50" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AF50">
         <v>31</v>
@@ -11463,7 +11622,7 @@
     </row>
     <row r="51" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE51" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AF51">
         <v>28</v>
@@ -11474,7 +11633,7 @@
     </row>
     <row r="52" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE52" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AF52">
         <v>27</v>
@@ -11485,7 +11644,7 @@
     </row>
     <row r="53" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE53" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AF53">
         <v>26</v>
@@ -11496,7 +11655,7 @@
     </row>
     <row r="54" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE54" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="AF54">
         <v>24</v>
@@ -11507,7 +11666,7 @@
     </row>
     <row r="55" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE55" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AF55">
         <v>23</v>
@@ -11518,7 +11677,7 @@
     </row>
     <row r="56" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE56" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AF56">
         <v>22</v>
@@ -11529,7 +11688,7 @@
     </row>
     <row r="57" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE57" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AF57">
         <v>21</v>
@@ -11540,7 +11699,7 @@
     </row>
     <row r="58" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE58" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AF58">
         <v>21</v>
@@ -11551,7 +11710,7 @@
     </row>
     <row r="59" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE59" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AF59">
         <v>17</v>
@@ -11562,7 +11721,7 @@
     </row>
     <row r="60" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE60" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AF60">
         <v>17</v>
@@ -11573,7 +11732,7 @@
     </row>
     <row r="61" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE61" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AF61">
         <v>16</v>
@@ -11584,7 +11743,7 @@
     </row>
     <row r="62" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE62" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AF62">
         <v>14</v>
@@ -11595,7 +11754,7 @@
     </row>
     <row r="63" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE63" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AF63">
         <v>13</v>
@@ -11606,7 +11765,7 @@
     </row>
     <row r="64" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE64" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AF64">
         <v>13</v>
@@ -11617,7 +11776,7 @@
     </row>
     <row r="65" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE65" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AF65">
         <v>11</v>
@@ -11628,7 +11787,7 @@
     </row>
     <row r="66" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE66" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AF66">
         <v>11</v>
@@ -11639,7 +11798,7 @@
     </row>
     <row r="67" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE67" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AF67">
         <v>10</v>
@@ -11650,7 +11809,7 @@
     </row>
     <row r="68" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE68" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AF68">
         <v>9</v>
@@ -11661,7 +11820,7 @@
     </row>
     <row r="69" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE69" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AF69">
         <v>9</v>
@@ -11672,7 +11831,7 @@
     </row>
     <row r="70" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE70" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AF70">
         <v>9</v>
@@ -11683,7 +11842,7 @@
     </row>
     <row r="71" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE71" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AF71">
         <v>9</v>
@@ -11694,7 +11853,7 @@
     </row>
     <row r="72" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE72" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AF72">
         <v>8</v>
@@ -11705,7 +11864,7 @@
     </row>
     <row r="73" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE73" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AF73">
         <v>8</v>
@@ -11716,7 +11875,7 @@
     </row>
     <row r="74" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE74" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AF74">
         <v>8</v>
@@ -11727,7 +11886,7 @@
     </row>
     <row r="75" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE75" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AF75">
         <v>7</v>
@@ -11738,7 +11897,7 @@
     </row>
     <row r="76" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE76" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AF76">
         <v>6</v>
@@ -11749,7 +11908,7 @@
     </row>
     <row r="77" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE77" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AF77">
         <v>6</v>
@@ -11760,7 +11919,7 @@
     </row>
     <row r="78" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE78" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AF78">
         <v>5</v>
@@ -11771,7 +11930,7 @@
     </row>
     <row r="79" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE79" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AF79">
         <v>5</v>
@@ -11782,7 +11941,7 @@
     </row>
     <row r="80" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE80" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AF80">
         <v>4</v>
@@ -11793,7 +11952,7 @@
     </row>
     <row r="81" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE81" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AF81">
         <v>4</v>
@@ -11804,7 +11963,7 @@
     </row>
     <row r="82" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE82" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AF82">
         <v>4</v>
@@ -11815,7 +11974,7 @@
     </row>
     <row r="83" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE83" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AF83">
         <v>3</v>
@@ -11826,7 +11985,7 @@
     </row>
     <row r="84" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE84" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AF84">
         <v>3</v>
@@ -11837,7 +11996,7 @@
     </row>
     <row r="85" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE85" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AF85">
         <v>2</v>
@@ -11848,7 +12007,7 @@
     </row>
     <row r="86" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE86" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AF86">
         <v>1</v>
@@ -11859,7 +12018,7 @@
     </row>
     <row r="87" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE87" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AF87">
         <v>1</v>
@@ -11870,7 +12029,7 @@
     </row>
     <row r="88" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE88" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AF88">
         <v>1</v>
@@ -11881,7 +12040,7 @@
     </row>
     <row r="89" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE89" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AF89">
         <v>1</v>
@@ -11892,7 +12051,7 @@
     </row>
     <row r="90" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE90" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AF90">
         <v>1</v>
@@ -11903,7 +12062,7 @@
     </row>
     <row r="91" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE91" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AF91">
         <v>1</v>
@@ -11914,7 +12073,7 @@
     </row>
     <row r="92" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE92" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AF92">
         <v>1</v>
@@ -11925,7 +12084,7 @@
     </row>
     <row r="93" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE93" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AF93">
         <v>1</v>
@@ -11936,7 +12095,7 @@
     </row>
     <row r="94" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE94" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AF94">
         <v>1</v>
@@ -11947,7 +12106,7 @@
     </row>
     <row r="95" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE95" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AF95">
         <v>1</v>
@@ -11982,189 +12141,244 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>44</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>47</v>
       </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>589</v>
-      </c>
-      <c r="B31" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>591</v>
-      </c>
-      <c r="B32" t="s">
-        <v>592</v>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>593</v>
+        <v>582</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>594</v>
+        <v>579</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>595</v>
+      <c r="A39" s="1" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>599</v>
+      <c r="A44" s="1" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>600</v>
+        <v>584</v>
+      </c>
+      <c r="B45" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>586</v>
+      </c>
       <c r="B46" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="47" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>605</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>606</v>
       </c>
     </row>
   </sheetData>

--- a/resources/analysis/CharacterDistribution.xlsx
+++ b/resources/analysis/CharacterDistribution.xlsx
@@ -5,19 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git - v4j\resources\analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\mzatt\Projects\Git - v4j\resources\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D252D5C-BB70-4702-A25C-0EA82348B2F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5F2C45-AD59-42D7-8F62-9D0C7598BA53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24570" windowHeight="14620" activeTab="1" xr2:uid="{28084D89-986C-43D7-B7C5-D3C73F764B73}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" activeTab="3" xr2:uid="{28084D89-986C-43D7-B7C5-D3C73F764B73}"/>
   </bookViews>
   <sheets>
     <sheet name="Slot Alphabet by Cluster" sheetId="12" r:id="rId1"/>
     <sheet name="Characer Distributions" sheetId="10" r:id="rId2"/>
     <sheet name="Char Counts" sheetId="13" r:id="rId3"/>
     <sheet name="Char Counts (2)" sheetId="14" r:id="rId4"/>
-    <sheet name="Notes" sheetId="11" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Char Counts (2)'!$AE$6:$AG$95</definedName>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="582">
   <si>
     <t>Transcription     : AUGMENTED</t>
   </si>
@@ -169,36 +168,12 @@
     <t>[ Last line in paragraph  ]</t>
   </si>
   <si>
-    <t>* Borders of paragraphs have differnt distribution</t>
-  </si>
-  <si>
-    <t>* The distribution is not the same across all clusters. Only some letters behave the same acreoss all document</t>
-  </si>
-  <si>
-    <t>* t is different form the others</t>
-  </si>
-  <si>
-    <t>* q appears at beginning only in HA, in SB it is the opposite</t>
-  </si>
-  <si>
-    <t>* When converting to Slot, we should really convert LSI first, align it then transliterate to Slot.</t>
-  </si>
-  <si>
-    <t>* Projects do not automatically mount when vj4 is cloned.</t>
-  </si>
-  <si>
-    <t>* Check that letter distribution is different for a whole cluster, compared to other clusters or the entire Voynich</t>
-  </si>
-  <si>
     <t>Filter            : &lt;no-filter&gt;</t>
   </si>
   <si>
     <t>[ *** NULL TEST ****      ]</t>
   </si>
   <si>
-    <t>* Maybe test classes should be packaged accordingly to classes they test.</t>
-  </si>
-  <si>
     <t>Voynich</t>
   </si>
   <si>
@@ -1772,144 +1747,6 @@
   </si>
   <si>
     <t>v [18.441%]</t>
-  </si>
-  <si>
-    <t>Slot</t>
-  </si>
-  <si>
-    <t>Allo clues prove slots are a real thing</t>
-  </si>
-  <si>
-    <t>If so, glyps in slots are basic unit of information (qu- in Italian)</t>
-  </si>
-  <si>
-    <t>Therefore the glyps in the slot constitute the Voynich alphabet</t>
-  </si>
-  <si>
-    <t>* Can we prove separable words are read at least by one transcriber as two words? -&gt; That would support slots are real</t>
-  </si>
-  <si>
-    <t>* Are irregular words unusually long?</t>
-  </si>
-  <si>
-    <t>Chi-square</t>
-  </si>
-  <si>
-    <t>H0:</t>
-  </si>
-  <si>
-    <t>The two samples come from a common distribution.</t>
-  </si>
-  <si>
-    <t>Ha:</t>
-  </si>
-  <si>
-    <t>The two samples do not come from a common distribution.</t>
-  </si>
-  <si>
-    <t>The significance level, also denoted as alpha or α, is the probability of rejecting the null hypothesis when it is true. For example, a significance level of 0.05 indicates a 5% risk of concluding that a difference exists when there is no actual difference.</t>
-  </si>
-  <si>
-    <t>α e' la probabilita' di SBAGLIARE rigettando l'ipotesi nulla quando e' vera.</t>
-  </si>
-  <si>
-    <t>chiSquareTestDataSetsComparison(long[] observed1, long[] observed2)</t>
-  </si>
-  <si>
-    <t>@return p-value</t>
-  </si>
-  <si>
-    <t>@return p-value such that  the null hypotesys can be rejected with confidence 1 - p-value</t>
-  </si>
-  <si>
-    <t>public boolean chiSquareTestDataSetsComparison(final long[] observed1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                   final long[] observed2,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                   final double alpha)</t>
-  </si>
-  <si>
-    <t>return chiSquareTestDataSetsComparison(observed1, observed2) &lt; alpha</t>
-  </si>
-  <si>
-    <t>@param alpha significance level of the test</t>
-  </si>
-  <si>
-    <t>@return true iff null hypothesis can be rejected with confidence 1 - alpha</t>
-  </si>
-  <si>
-    <t>@return true if "The two samples come from a common distribution" can be rejected with confidence 1 - alpha</t>
-  </si>
-  <si>
-    <t>http://profs.sci.univr.it/~chignola/statistica6.pdf</t>
-  </si>
-  <si>
-    <t>http://m.docente.unife.it/giorgio.bertorelle/didattica_insegnamenti/biostatistica-1/Slide9.pdf</t>
-  </si>
-  <si>
-    <t>Nice Voynich browsers to add to main page</t>
-  </si>
-  <si>
-    <t>https://www.jasondavies.com/voynich/#f68r1_f68r2_f68r3/0.422/0.371/2.30</t>
-  </si>
-  <si>
-    <t>https://ambertide.github.io/VoynichExplorer/folio/f2r.html</t>
-  </si>
-  <si>
-    <t>Voynich Navigator ??????</t>
-  </si>
-  <si>
-    <t>* Cluster pages by char distribution, maybe we find new languages :)</t>
-  </si>
-  <si>
-    <r>
-      <t>The confidence level is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF202124"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>equivalent to 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF202124"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> – the alpha level. So, if your significance level is 0.05, the corresponding confidence level is 95%. If the P value is less than your significance (alpha) level, the hypothesis test is statistically significan</t>
-    </r>
-  </si>
-  <si>
-    <t>* Char distruîbution (alphabet) is different for each cluster</t>
-  </si>
-  <si>
-    <t>* If this depends on different languages used, we have a team of people speaking different languages….unplausible</t>
-  </si>
-  <si>
-    <t>* Cross check distribution of hands and above clusters</t>
-  </si>
-  <si>
-    <t>* Not true all gallows are in first line  some appear LESS than they shoud</t>
-  </si>
-  <si>
-    <t>* C and S behave differntly  S appeas a lot in first line of paragraphs</t>
-  </si>
-  <si>
-    <t>* Create a graph of pages where pages are connected if they belong to same distribution…see clusters</t>
-  </si>
-  <si>
-    <t>TO READ</t>
-  </si>
-  <si>
-    <t>https://www.d.umn.edu/~tpederse/Courses/CS5761-SPR04/Projects/rajk0007.pdf</t>
   </si>
   <si>
     <t>Significance [alpha]</t>
@@ -1958,7 +1795,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2025,19 +1862,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -2244,7 +2068,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -2368,7 +2192,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2911,7 +2734,7 @@
   <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="A16" sqref="A16:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2936,7 +2759,7 @@
     </row>
     <row r="4" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -4057,7 +3880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A39694-E2CC-46DB-B96E-DA01A1F88493}">
   <dimension ref="A1:AB61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -4094,7 +3917,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>628</v>
+        <v>581</v>
       </c>
       <c r="B4" s="7"/>
     </row>
@@ -4134,7 +3957,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>616</v>
+        <v>569</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>17</v>
@@ -4223,82 +4046,82 @@
         <v>0</v>
       </c>
       <c r="C10" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="R10" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="S10" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="T10" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="U10" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="V10" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="W10" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="X10" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="I10" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="M10" s="20" t="s">
+      <c r="Y10" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z10" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="N10" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="O10" s="20" t="s">
+      <c r="AA10" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="P10" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q10" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="R10" s="20" t="s">
+      <c r="AB10" s="20" t="s">
         <v>281</v>
-      </c>
-      <c r="S10" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="T10" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="U10" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="V10" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="W10" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="X10" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y10" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z10" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA10" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="AB10" s="20" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.35">
@@ -4309,82 +4132,82 @@
         <v>0</v>
       </c>
       <c r="C11" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="O11" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="P11" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q11" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="R11" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="S11" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="T11" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="U11" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="V11" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="W11" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="X11" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="Y11" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z11" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="J11" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="M11" s="20" t="s">
+      <c r="AA11" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB11" s="20" t="s">
         <v>297</v>
-      </c>
-      <c r="N11" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="O11" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="P11" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q11" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="R11" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="S11" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="T11" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="U11" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="V11" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="W11" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="X11" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y11" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z11" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA11" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="AB11" s="20" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.35">
@@ -4395,82 +4218,82 @@
         <v>0</v>
       </c>
       <c r="C12" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="P12" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q12" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="R12" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="S12" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="T12" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="U12" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="V12" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="W12" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="X12" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="I12" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="M12" s="20" t="s">
+      <c r="Y12" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z12" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="N12" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="O12" s="20" t="s">
+      <c r="AA12" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB12" s="20" t="s">
         <v>313</v>
-      </c>
-      <c r="P12" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q12" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="R12" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="S12" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="T12" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="U12" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="V12" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="W12" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="X12" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="Y12" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z12" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="AA12" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB12" s="20" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.35">
@@ -4481,82 +4304,82 @@
         <v>0</v>
       </c>
       <c r="C13" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="N13" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="O13" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="P13" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q13" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="R13" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="F13" s="20" t="s">
+      <c r="S13" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="T13" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="U13" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="V13" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="W13" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="X13" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="Y13" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z13" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA13" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB13" s="20" t="s">
         <v>327</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="M13" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="N13" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="O13" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="P13" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q13" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="R13" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="S13" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="T13" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="U13" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="V13" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="W13" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="X13" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="Y13" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z13" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="AA13" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="AB13" s="20" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.35">
@@ -4567,82 +4390,82 @@
         <v>0</v>
       </c>
       <c r="C14" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="N14" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="O14" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="P14" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q14" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="R14" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="S14" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="T14" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="U14" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="V14" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="W14" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="X14" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="G14" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="H14" s="20" t="s">
+      <c r="Y14" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z14" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA14" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="AB14" s="20" t="s">
         <v>341</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="M14" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="N14" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="O14" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="P14" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q14" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="R14" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="S14" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="T14" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="U14" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="V14" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="W14" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="X14" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="Y14" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z14" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA14" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="AB14" s="20" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.35">
@@ -4681,7 +4504,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>616</v>
+        <v>569</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>17</v>
@@ -4770,82 +4593,82 @@
         <v>0</v>
       </c>
       <c r="C19" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="N19" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="O19" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="P19" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q19" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="R19" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="S19" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="T19" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="U19" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="V19" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="W19" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="X19" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="I19" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="K19" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="L19" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="M19" s="20" t="s">
+      <c r="Y19" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z19" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="N19" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="O19" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="P19" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q19" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="R19" s="20" t="s">
+      <c r="AA19" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="S19" s="20" t="s">
+      <c r="AB19" s="20" t="s">
         <v>358</v>
-      </c>
-      <c r="T19" s="20" t="s">
-        <v>359</v>
-      </c>
-      <c r="U19" s="20" t="s">
-        <v>360</v>
-      </c>
-      <c r="V19" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="W19" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="X19" s="20" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y19" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z19" s="20" t="s">
-        <v>364</v>
-      </c>
-      <c r="AA19" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="AB19" s="20" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.35">
@@ -4856,82 +4679,82 @@
         <v>0</v>
       </c>
       <c r="C20" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="N20" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="O20" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="P20" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q20" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="R20" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="S20" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="T20" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="U20" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="V20" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="W20" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="X20" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="H20" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="K20" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="L20" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="M20" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="N20" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="O20" s="20" t="s">
+      <c r="Y20" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z20" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="P20" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q20" s="20" t="s">
+      <c r="AA20" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="R20" s="20" t="s">
+      <c r="AB20" s="20" t="s">
         <v>374</v>
-      </c>
-      <c r="S20" s="20" t="s">
-        <v>375</v>
-      </c>
-      <c r="T20" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="U20" s="20" t="s">
-        <v>376</v>
-      </c>
-      <c r="V20" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="W20" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="X20" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="Y20" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z20" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="AA20" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="AB20" s="20" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.35">
@@ -4942,82 +4765,82 @@
         <v>0</v>
       </c>
       <c r="C21" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="N21" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="O21" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="P21" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q21" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="R21" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="S21" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="E21" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="F21" s="20" t="s">
+      <c r="T21" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="U21" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="V21" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="W21" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="X21" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y21" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z21" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA21" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB21" s="20" t="s">
         <v>386</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>387</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="K21" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="L21" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="M21" s="20" t="s">
-        <v>388</v>
-      </c>
-      <c r="N21" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="O21" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="P21" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q21" s="20" t="s">
-        <v>390</v>
-      </c>
-      <c r="R21" s="20" t="s">
-        <v>391</v>
-      </c>
-      <c r="S21" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="T21" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="U21" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="V21" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="W21" s="20" t="s">
-        <v>393</v>
-      </c>
-      <c r="X21" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="Y21" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z21" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA21" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="AB21" s="20" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.35">
@@ -5028,82 +4851,82 @@
         <v>0</v>
       </c>
       <c r="C22" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="M22" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="N22" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="O22" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="P22" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q22" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="R22" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="S22" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="T22" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="U22" s="20" t="s">
         <v>395</v>
       </c>
-      <c r="D22" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="E22" s="20" t="s">
+      <c r="V22" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="W22" s="20" t="s">
         <v>397</v>
       </c>
-      <c r="G22" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="H22" s="20" t="s">
+      <c r="X22" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y22" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z22" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA22" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="I22" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="K22" s="20" t="s">
+      <c r="AB22" s="20" t="s">
         <v>399</v>
-      </c>
-      <c r="L22" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="M22" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="N22" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="O22" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="P22" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q22" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="R22" s="20" t="s">
-        <v>402</v>
-      </c>
-      <c r="S22" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="T22" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="U22" s="20" t="s">
-        <v>403</v>
-      </c>
-      <c r="V22" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="W22" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="X22" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y22" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z22" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA22" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="AB22" s="20" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.35">
@@ -5114,82 +4937,82 @@
         <v>0</v>
       </c>
       <c r="C23" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="M23" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="N23" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="O23" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="P23" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q23" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="R23" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="S23" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="T23" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="U23" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="V23" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="W23" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="X23" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y23" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z23" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA23" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="AB23" s="20" t="s">
         <v>409</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>411</v>
-      </c>
-      <c r="I23" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="J23" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="K23" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="L23" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="M23" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="N23" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="O23" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="P23" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q23" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="R23" s="20" t="s">
-        <v>413</v>
-      </c>
-      <c r="S23" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="T23" s="20" t="s">
-        <v>414</v>
-      </c>
-      <c r="U23" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="V23" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="W23" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="X23" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y23" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z23" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA23" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="AB23" s="20" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.35">
@@ -5228,7 +5051,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>616</v>
+        <v>569</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>17</v>
@@ -5317,82 +5140,82 @@
         <v>0</v>
       </c>
       <c r="C28" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="M28" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="N28" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="O28" s="20" t="s">
         <v>419</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="P28" s="20" t="s">
         <v>420</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="Q28" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="R28" s="20" t="s">
         <v>422</v>
       </c>
-      <c r="H28" s="20" t="s">
+      <c r="S28" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="I28" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="J28" s="20" t="s">
+      <c r="T28" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="U28" s="20" t="s">
         <v>424</v>
       </c>
-      <c r="K28" s="20" t="s">
+      <c r="V28" s="20" t="s">
         <v>425</v>
       </c>
-      <c r="L28" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="M28" s="20" t="s">
+      <c r="W28" s="20" t="s">
         <v>426</v>
       </c>
-      <c r="N28" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="O28" s="20" t="s">
+      <c r="X28" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="P28" s="20" t="s">
+      <c r="Y28" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z28" s="20" t="s">
         <v>428</v>
       </c>
-      <c r="Q28" s="20" t="s">
+      <c r="AA28" s="20" t="s">
         <v>429</v>
       </c>
-      <c r="R28" s="20" t="s">
+      <c r="AB28" s="20" t="s">
         <v>430</v>
-      </c>
-      <c r="S28" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="T28" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="U28" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="V28" s="20" t="s">
-        <v>433</v>
-      </c>
-      <c r="W28" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="X28" s="20" t="s">
-        <v>435</v>
-      </c>
-      <c r="Y28" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z28" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="AA28" s="20" t="s">
-        <v>437</v>
-      </c>
-      <c r="AB28" s="20" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.35">
@@ -5403,82 +5226,82 @@
         <v>1.8500000000000001E-3</v>
       </c>
       <c r="C29" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="I29" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="L29" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="M29" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="N29" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="O29" s="20" t="s">
         <v>440</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="P29" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q29" s="20" t="s">
         <v>441</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="R29" s="20" t="s">
         <v>442</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="S29" s="20" t="s">
         <v>443</v>
       </c>
-      <c r="H29" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="I29" s="20" t="s">
+      <c r="T29" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="U29" s="20" t="s">
         <v>444</v>
       </c>
-      <c r="J29" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="K29" s="20" t="s">
+      <c r="V29" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="L29" s="20" t="s">
+      <c r="W29" s="20" t="s">
         <v>446</v>
       </c>
-      <c r="M29" s="20" t="s">
+      <c r="X29" s="20" t="s">
         <v>447</v>
       </c>
-      <c r="N29" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="O29" s="20" t="s">
+      <c r="Y29" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z29" s="20" t="s">
         <v>448</v>
       </c>
-      <c r="P29" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q29" s="20" t="s">
+      <c r="AA29" s="20" t="s">
         <v>449</v>
       </c>
-      <c r="R29" s="20" t="s">
+      <c r="AB29" s="20" t="s">
         <v>450</v>
-      </c>
-      <c r="S29" s="20" t="s">
-        <v>451</v>
-      </c>
-      <c r="T29" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="U29" s="20" t="s">
-        <v>452</v>
-      </c>
-      <c r="V29" s="20" t="s">
-        <v>453</v>
-      </c>
-      <c r="W29" s="20" t="s">
-        <v>454</v>
-      </c>
-      <c r="X29" s="20" t="s">
-        <v>455</v>
-      </c>
-      <c r="Y29" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z29" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="AA29" s="20" t="s">
-        <v>457</v>
-      </c>
-      <c r="AB29" s="20" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.35">
@@ -5489,82 +5312,82 @@
         <v>8.3800000000000003E-3</v>
       </c>
       <c r="C30" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>453</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="K30" s="20" t="s">
         <v>459</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="L30" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="M30" s="20" t="s">
         <v>460</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="N30" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="O30" s="20" t="s">
         <v>461</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="P30" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q30" s="20" t="s">
         <v>462</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="R30" s="20" t="s">
         <v>463</v>
       </c>
-      <c r="H30" s="20" t="s">
+      <c r="S30" s="20" t="s">
         <v>464</v>
       </c>
-      <c r="I30" s="20" t="s">
+      <c r="T30" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="U30" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="J30" s="20" t="s">
+      <c r="V30" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="K30" s="20" t="s">
+      <c r="W30" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="L30" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="M30" s="20" t="s">
+      <c r="X30" s="20" t="s">
         <v>468</v>
       </c>
-      <c r="N30" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="O30" s="20" t="s">
+      <c r="Y30" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z30" s="20" t="s">
         <v>469</v>
       </c>
-      <c r="P30" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q30" s="20" t="s">
+      <c r="AA30" s="20" t="s">
         <v>470</v>
       </c>
-      <c r="R30" s="20" t="s">
+      <c r="AB30" s="20" t="s">
         <v>471</v>
-      </c>
-      <c r="S30" s="20" t="s">
-        <v>472</v>
-      </c>
-      <c r="T30" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="U30" s="20" t="s">
-        <v>473</v>
-      </c>
-      <c r="V30" s="20" t="s">
-        <v>474</v>
-      </c>
-      <c r="W30" s="20" t="s">
-        <v>475</v>
-      </c>
-      <c r="X30" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="Y30" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z30" s="20" t="s">
-        <v>477</v>
-      </c>
-      <c r="AA30" s="20" t="s">
-        <v>478</v>
-      </c>
-      <c r="AB30" s="20" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.35">
@@ -5575,82 +5398,82 @@
         <v>0</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D31" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="K31" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="L31" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="M31" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="N31" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="O31" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="P31" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q31" s="20" t="s">
         <v>480</v>
       </c>
-      <c r="E31" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G31" s="20" t="s">
+      <c r="R31" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="H31" s="20" t="s">
+      <c r="S31" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="I31" s="20" t="s">
+      <c r="T31" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="U31" s="20" t="s">
         <v>483</v>
       </c>
-      <c r="J31" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="K31" s="20" t="s">
+      <c r="V31" s="20" t="s">
         <v>484</v>
       </c>
-      <c r="L31" s="20" t="s">
+      <c r="W31" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="M31" s="20" t="s">
+      <c r="X31" s="20" t="s">
         <v>486</v>
       </c>
-      <c r="N31" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="O31" s="20" t="s">
+      <c r="Y31" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z31" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="P31" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q31" s="20" t="s">
+      <c r="AA31" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB31" s="20" t="s">
         <v>488</v>
-      </c>
-      <c r="R31" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="S31" s="20" t="s">
-        <v>490</v>
-      </c>
-      <c r="T31" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="U31" s="20" t="s">
-        <v>491</v>
-      </c>
-      <c r="V31" s="20" t="s">
-        <v>492</v>
-      </c>
-      <c r="W31" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="X31" s="20" t="s">
-        <v>494</v>
-      </c>
-      <c r="Y31" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z31" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="AA31" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="AB31" s="20" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.35">
@@ -5661,82 +5484,82 @@
         <v>0</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E32" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>492</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="L32" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="M32" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="N32" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="O32" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="P32" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q32" s="20" t="s">
+        <v>496</v>
+      </c>
+      <c r="R32" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="S32" s="20" t="s">
         <v>498</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="T32" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="H32" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="I32" s="20" t="s">
+      <c r="U32" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="J32" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="K32" s="20" t="s">
+      <c r="V32" s="20" t="s">
         <v>501</v>
       </c>
-      <c r="L32" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="M32" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="N32" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="O32" s="20" t="s">
+      <c r="W32" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="P32" s="20" t="s">
+      <c r="X32" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y32" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z32" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA32" s="20" t="s">
         <v>503</v>
       </c>
-      <c r="Q32" s="20" t="s">
+      <c r="AB32" s="20" t="s">
         <v>504</v>
-      </c>
-      <c r="R32" s="20" t="s">
-        <v>505</v>
-      </c>
-      <c r="S32" s="20" t="s">
-        <v>506</v>
-      </c>
-      <c r="T32" s="20" t="s">
-        <v>507</v>
-      </c>
-      <c r="U32" s="20" t="s">
-        <v>508</v>
-      </c>
-      <c r="V32" s="20" t="s">
-        <v>509</v>
-      </c>
-      <c r="W32" s="20" t="s">
-        <v>510</v>
-      </c>
-      <c r="X32" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="Y32" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z32" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="AA32" s="20" t="s">
-        <v>511</v>
-      </c>
-      <c r="AB32" s="20" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.35">
@@ -5775,7 +5598,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>616</v>
+        <v>569</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>17</v>
@@ -5864,82 +5687,82 @@
         <v>0</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="I37" s="20" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="L37" s="20" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="N37" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="O37" s="20" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="P37" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="Q37" s="20" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="R37" s="20" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="S37" s="20" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="T37" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="U37" s="20" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="V37" s="20" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="W37" s="20" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="X37" s="20" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="Y37" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="Z37" s="20" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="AA37" s="20" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="AB37" s="20" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.35">
@@ -5950,82 +5773,82 @@
         <v>0</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="I38" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="L38" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="M38" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="N38" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="O38" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="P38" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="Q38" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="R38" s="20" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="S38" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="T38" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="U38" s="20" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="V38" s="20" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="W38" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="X38" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="Y38" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="Z38" s="20" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="AA38" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="AB38" s="20" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.35">
@@ -6036,82 +5859,82 @@
         <v>0</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="I39" s="20" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="K39" s="20" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="L39" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="M39" s="20" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="N39" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="O39" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="P39" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="Q39" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="R39" s="20" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="S39" s="20" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="T39" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="U39" s="20" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="V39" s="20" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="W39" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="X39" s="20" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="Y39" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="Z39" s="20" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="AA39" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="AB39" s="20" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.35">
@@ -6122,82 +5945,82 @@
         <v>0</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="I40" s="20" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="K40" s="20" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="L40" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="M40" s="20" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="N40" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="O40" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="P40" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="Q40" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="R40" s="20" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="S40" s="20" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="T40" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="U40" s="20" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="V40" s="20" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="W40" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="X40" s="20" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="Y40" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="Z40" s="20" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="AA40" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="AB40" s="20" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.35">
@@ -6208,82 +6031,82 @@
         <v>0</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="I41" s="20" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="K41" s="20" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="L41" s="20" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="M41" s="20" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="N41" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="O41" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="P41" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="Q41" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="R41" s="20" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="S41" s="20" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="T41" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="U41" s="20" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="V41" s="20" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="W41" s="20" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="X41" s="20" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="Y41" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="Z41" s="20" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="AA41" s="20" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="AB41" s="20" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.35">
@@ -6322,7 +6145,7 @@
         <v>4</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>616</v>
+        <v>569</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>17</v>
@@ -6411,82 +6234,82 @@
         <v>0</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D46" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="I46" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="J46" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="K46" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="L46" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="M46" s="20" t="s">
+        <v>533</v>
+      </c>
+      <c r="N46" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="O46" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="P46" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q46" s="20" t="s">
+        <v>535</v>
+      </c>
+      <c r="R46" s="20" t="s">
         <v>536</v>
       </c>
-      <c r="E46" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="F46" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="G46" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="H46" s="20" t="s">
+      <c r="S46" s="20" t="s">
         <v>537</v>
       </c>
-      <c r="I46" s="20" t="s">
+      <c r="T46" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="U46" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="V46" s="20" t="s">
         <v>538</v>
       </c>
-      <c r="J46" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="K46" s="20" t="s">
+      <c r="W46" s="20" t="s">
         <v>539</v>
       </c>
-      <c r="L46" s="20" t="s">
+      <c r="X46" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y46" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z46" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA46" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB46" s="20" t="s">
         <v>540</v>
-      </c>
-      <c r="M46" s="20" t="s">
-        <v>541</v>
-      </c>
-      <c r="N46" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="O46" s="20" t="s">
-        <v>542</v>
-      </c>
-      <c r="P46" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q46" s="20" t="s">
-        <v>543</v>
-      </c>
-      <c r="R46" s="20" t="s">
-        <v>544</v>
-      </c>
-      <c r="S46" s="20" t="s">
-        <v>545</v>
-      </c>
-      <c r="T46" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="U46" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="V46" s="20" t="s">
-        <v>546</v>
-      </c>
-      <c r="W46" s="20" t="s">
-        <v>547</v>
-      </c>
-      <c r="X46" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y46" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z46" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA46" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="AB46" s="20" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.35">
@@ -6497,82 +6320,82 @@
         <v>0</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="I47" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="K47" s="20" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="L47" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="M47" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="N47" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="O47" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="P47" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="Q47" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="R47" s="20" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="S47" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="T47" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="U47" s="20" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="V47" s="20" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="W47" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="X47" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="Y47" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="Z47" s="20" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="AA47" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="AB47" s="20" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.35">
@@ -6583,82 +6406,82 @@
         <v>0</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E48" s="20" t="s">
+        <v>549</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>550</v>
+      </c>
+      <c r="I48" s="20" t="s">
+        <v>551</v>
+      </c>
+      <c r="J48" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="K48" s="20" t="s">
+        <v>552</v>
+      </c>
+      <c r="L48" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="M48" s="20" t="s">
+        <v>553</v>
+      </c>
+      <c r="N48" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="O48" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="P48" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q48" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="R48" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="S48" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="T48" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="U48" s="20" t="s">
+        <v>555</v>
+      </c>
+      <c r="V48" s="20" t="s">
+        <v>551</v>
+      </c>
+      <c r="W48" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="X48" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y48" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z48" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="AA48" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB48" s="20" t="s">
         <v>557</v>
-      </c>
-      <c r="F48" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="G48" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="H48" s="20" t="s">
-        <v>558</v>
-      </c>
-      <c r="I48" s="20" t="s">
-        <v>559</v>
-      </c>
-      <c r="J48" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="K48" s="20" t="s">
-        <v>560</v>
-      </c>
-      <c r="L48" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="M48" s="20" t="s">
-        <v>561</v>
-      </c>
-      <c r="N48" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="O48" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="P48" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q48" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="R48" s="20" t="s">
-        <v>562</v>
-      </c>
-      <c r="S48" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="T48" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="U48" s="20" t="s">
-        <v>563</v>
-      </c>
-      <c r="V48" s="20" t="s">
-        <v>559</v>
-      </c>
-      <c r="W48" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="X48" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y48" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z48" s="20" t="s">
-        <v>564</v>
-      </c>
-      <c r="AA48" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="AB48" s="20" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.35">
@@ -6669,82 +6492,82 @@
         <v>0</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>617</v>
+        <v>570</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>618</v>
+        <v>571</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>619</v>
+        <v>572</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>620</v>
+        <v>573</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>621</v>
+        <v>574</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>622</v>
+        <v>575</v>
       </c>
       <c r="I49" s="20" t="s">
-        <v>622</v>
+        <v>575</v>
       </c>
       <c r="J49" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="K49" s="20" t="s">
-        <v>623</v>
+        <v>576</v>
       </c>
       <c r="L49" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="M49" s="20" t="s">
-        <v>622</v>
+        <v>575</v>
       </c>
       <c r="N49" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="O49" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="P49" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="Q49" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="R49" s="20" t="s">
-        <v>622</v>
+        <v>575</v>
       </c>
       <c r="S49" s="20" t="s">
-        <v>624</v>
+        <v>577</v>
       </c>
       <c r="T49" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="U49" s="20" t="s">
-        <v>625</v>
+        <v>578</v>
       </c>
       <c r="V49" s="20" t="s">
-        <v>622</v>
+        <v>575</v>
       </c>
       <c r="W49" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="X49" s="20" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="Y49" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="Z49" s="20" t="s">
-        <v>626</v>
+        <v>579</v>
       </c>
       <c r="AA49" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="AB49" s="20" t="s">
-        <v>627</v>
+        <v>580</v>
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.35">
@@ -6755,82 +6578,82 @@
         <v>0</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D50" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>560</v>
+      </c>
+      <c r="I50" s="20" t="s">
+        <v>561</v>
+      </c>
+      <c r="J50" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="K50" s="20" t="s">
+        <v>562</v>
+      </c>
+      <c r="L50" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="M50" s="20" t="s">
+        <v>564</v>
+      </c>
+      <c r="N50" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="O50" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="P50" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q50" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="R50" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="S50" s="20" t="s">
         <v>566</v>
       </c>
-      <c r="E50" s="20" t="s">
+      <c r="T50" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="U50" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="V50" s="20" t="s">
         <v>567</v>
       </c>
-      <c r="F50" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="G50" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="H50" s="20" t="s">
+      <c r="W50" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="X50" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y50" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z50" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA50" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB50" s="20" t="s">
         <v>568</v>
-      </c>
-      <c r="I50" s="20" t="s">
-        <v>569</v>
-      </c>
-      <c r="J50" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="K50" s="20" t="s">
-        <v>570</v>
-      </c>
-      <c r="L50" s="20" t="s">
-        <v>571</v>
-      </c>
-      <c r="M50" s="20" t="s">
-        <v>572</v>
-      </c>
-      <c r="N50" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="O50" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="P50" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q50" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="R50" s="20" t="s">
-        <v>573</v>
-      </c>
-      <c r="S50" s="20" t="s">
-        <v>574</v>
-      </c>
-      <c r="T50" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="U50" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="V50" s="20" t="s">
-        <v>575</v>
-      </c>
-      <c r="W50" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="X50" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y50" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z50" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA50" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="AB50" s="20" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.35">
@@ -6845,7 +6668,7 @@
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
@@ -6869,7 +6692,7 @@
         <v>4</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>616</v>
+        <v>569</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>17</v>
@@ -7340,7 +7163,7 @@
   <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7355,24 +7178,24 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K1" s="2"/>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="S1" s="2"/>
       <c r="U1" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="W1" s="2"/>
     </row>
@@ -7409,7 +7232,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I4" s="1"/>
       <c r="K4" s="2"/>
@@ -7420,10 +7243,10 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I5" s="1"/>
       <c r="K5" s="2"/>
@@ -7516,7 +7339,7 @@
         <v>0.101481284665714</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J8">
         <v>335549</v>
@@ -7525,7 +7348,7 @@
         <v>0.117105518476587</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="N8">
         <v>347976</v>
@@ -7534,7 +7357,7 @@
         <v>0.114204359165974</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="R8">
         <v>338302</v>
@@ -7563,7 +7386,7 @@
         <v>9.0771578496465999E-2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F9">
         <v>17040</v>
@@ -7581,7 +7404,7 @@
         <v>8.8662979399418404E-2</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N9">
         <v>312820</v>
@@ -7590,7 +7413,7 @@
         <v>0.102666297774272</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="R9">
         <v>245709</v>
@@ -7599,7 +7422,7 @@
         <v>7.5905292694236404E-2</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="V9">
         <v>244173</v>
@@ -7637,7 +7460,7 @@
         <v>8.1890697002396901E-2</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="N10">
         <v>300298</v>
@@ -7684,7 +7507,7 @@
         <v>7.5071683992604596E-2</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J11">
         <v>230729</v>
@@ -7693,7 +7516,7 @@
         <v>8.0523676639133096E-2</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="N11">
         <v>202342</v>
@@ -7702,7 +7525,7 @@
         <v>6.6407851237906296E-2</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="R11">
         <v>232890</v>
@@ -7711,7 +7534,7 @@
         <v>7.1945201907788095E-2</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="V11">
         <v>227542</v>
@@ -7749,7 +7572,7 @@
         <v>7.5709266143543702E-2</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="N12">
         <v>201949</v>
@@ -7758,7 +7581,7 @@
         <v>6.6278870178430302E-2</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="R12">
         <v>219774</v>
@@ -7767,7 +7590,7 @@
         <v>6.7893360831646807E-2</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="V12">
         <v>214727</v>
@@ -7787,7 +7610,7 @@
         <v>6.2841347183551E-2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F13">
         <v>12512</v>
@@ -7796,7 +7619,7 @@
         <v>6.9259468376011601E-2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J13">
         <v>181716</v>
@@ -7805,7 +7628,7 @@
         <v>6.3418297761255502E-2</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="N13">
         <v>194475</v>
@@ -7814,7 +7637,7 @@
         <v>6.38259326758253E-2</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="R13">
         <v>190201</v>
@@ -7823,7 +7646,7 @@
         <v>5.8757565151201001E-2</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="V13">
         <v>210181</v>
@@ -7852,7 +7675,7 @@
         <v>6.1316107033334399E-2</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="J14">
         <v>166105</v>
@@ -7870,7 +7693,7 @@
         <v>5.7955161195145703E-2</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="R14">
         <v>177919</v>
@@ -7908,7 +7731,7 @@
         <v>5.7402548518161699E-2</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J15">
         <v>160866</v>
@@ -7935,7 +7758,7 @@
         <v>5.3165122409405803E-2</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="V15">
         <v>194390</v>
@@ -7964,7 +7787,7 @@
         <v>5.6051900317734403E-2</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="J16">
         <v>152971</v>
@@ -7991,7 +7814,7 @@
         <v>4.2346620237518902E-2</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="V16">
         <v>168039</v>
@@ -8029,7 +7852,7 @@
         <v>3.5116055387184E-2</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="N17">
         <v>122041</v>
@@ -8038,7 +7861,7 @@
         <v>4.0053377810466098E-2</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="R17">
         <v>106681</v>
@@ -8047,7 +7870,7 @@
         <v>3.2956271564793402E-2</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="V17">
         <v>121554</v>
@@ -8076,7 +7899,7 @@
         <v>3.6749809027201097E-2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J18">
         <v>99148</v>
@@ -8094,7 +7917,7 @@
         <v>3.10841071376411E-2</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="R18">
         <v>87397</v>
@@ -8132,7 +7955,7 @@
         <v>3.5803248198213102E-2</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="J19">
         <v>76947</v>
@@ -8150,7 +7973,7 @@
         <v>2.54601391091905E-2</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="R19">
         <v>85388</v>
@@ -8159,7 +7982,7 @@
         <v>2.63783627485174E-2</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="V19">
         <v>86774</v>
@@ -8197,7 +8020,7 @@
         <v>2.27982142533074E-2</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="N20">
         <v>75932</v>
@@ -8253,7 +8076,7 @@
         <v>1.5789661040373298E-2</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N21">
         <v>69661</v>
@@ -8262,7 +8085,7 @@
         <v>2.2862467135265001E-2</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="R21">
         <v>76118</v>
@@ -8271,7 +8094,7 @@
         <v>2.35146415853708E-2</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="V21">
         <v>64957</v>
@@ -8300,7 +8123,7 @@
         <v>8.5688664518914597E-3</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J22">
         <v>42481</v>
@@ -8309,7 +8132,7 @@
         <v>1.48257319509338E-2</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="N22">
         <v>52873</v>
@@ -8327,7 +8150,7 @@
         <v>1.8737756974180401E-2</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="V22">
         <v>54820</v>
@@ -8356,7 +8179,7 @@
         <v>5.2974193762662302E-3</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J23">
         <v>40417</v>
@@ -8365,7 +8188,7 @@
         <v>1.41054026096582E-2</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="N23">
         <v>34866</v>
@@ -8374,7 +8197,7 @@
         <v>1.1442884528475699E-2</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="R23">
         <v>55997</v>
@@ -8412,7 +8235,7 @@
         <v>2.2031064908609801E-3</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J24">
         <v>29564</v>
@@ -8439,7 +8262,7 @@
         <v>1.09581356093995E-2</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="V24">
         <v>34872</v>
@@ -8459,7 +8282,7 @@
         <v>6.40527950310559E-3</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F25">
         <v>30</v>
@@ -8468,7 +8291,7 @@
         <v>1.6606330333122899E-4</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J25">
         <v>28405</v>
@@ -8486,7 +8309,7 @@
         <v>8.3309292970466606E-3</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="R25">
         <v>32837</v>
@@ -8495,7 +8318,7 @@
         <v>1.01441220964663E-2</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="V25">
         <v>33779</v>
@@ -8515,7 +8338,7 @@
         <v>5.8631398586421E-3</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F26">
         <v>10</v>
@@ -8533,7 +8356,7 @@
         <v>9.6221900524751502E-3</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="N26">
         <v>19520</v>
@@ -8571,7 +8394,7 @@
         <v>5.5954165774255698E-3</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F27">
         <v>7</v>
@@ -8580,7 +8403,7 @@
         <v>3.8748104110620301E-5</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="J27">
         <v>12909</v>
@@ -8589,7 +8412,7 @@
         <v>4.50519935393717E-3</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="N27">
         <v>15605</v>
@@ -8598,7 +8421,7 @@
         <v>5.1214998298303302E-3</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="R27">
         <v>25658</v>
@@ -8627,7 +8450,7 @@
         <v>2.1886378239451701E-3</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J28">
         <v>2407</v>
@@ -8636,7 +8459,7 @@
         <v>8.4003523471429004E-4</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="N28">
         <v>13125</v>
@@ -8654,7 +8477,7 @@
         <v>5.6458865132325798E-3</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="V28">
         <v>24653</v>
@@ -8674,7 +8497,7 @@
         <v>1.8539837224245E-3</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="J29">
         <v>1810</v>
@@ -8683,7 +8506,7 @@
         <v>6.3168416071161804E-4</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="N29">
         <v>10190</v>
@@ -8692,7 +8515,7 @@
         <v>3.344318056134E-3</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="R29">
         <v>17077</v>
@@ -8701,7 +8524,7 @@
         <v>5.2754871955828803E-3</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="V29">
         <v>15177</v>
@@ -8730,7 +8553,7 @@
         <v>7.6779290252240897E-6</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="N30">
         <v>7895</v>
@@ -8739,7 +8562,7 @@
         <v>2.5911080523236402E-3</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="R30">
         <v>12656</v>
@@ -8748,7 +8571,7 @@
         <v>3.9097362503540999E-3</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="V30">
         <v>13642</v>
@@ -8768,7 +8591,7 @@
         <v>3.7481259370314798E-4</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="N31">
         <v>6096</v>
@@ -8786,7 +8609,7 @@
         <v>3.5652865095872799E-3</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="V31">
         <v>13334</v>
@@ -8806,7 +8629,7 @@
         <v>2.6772328121653398E-4</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="N32">
         <v>3581</v>
@@ -8815,7 +8638,7 @@
         <v>1.17527016280822E-3</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="R32">
         <v>11447</v>
@@ -8824,7 +8647,7 @@
         <v>3.5362476973612002E-3</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="V32">
         <v>8891</v>
@@ -8835,7 +8658,7 @@
     </row>
     <row r="33" spans="13:23" x14ac:dyDescent="0.35">
       <c r="M33" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="N33">
         <v>3207</v>
@@ -8844,7 +8667,7 @@
         <v>1.0525248288539399E-3</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="R33">
         <v>1229</v>
@@ -8853,7 +8676,7 @@
         <v>3.79667023679297E-4</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="V33">
         <v>8287</v>
@@ -8873,7 +8696,7 @@
         <v>3.39354746814775E-4</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="R34">
         <v>1205</v>
@@ -8882,7 +8705,7 @@
         <v>3.72252858855617E-4</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="V34">
         <v>4288</v>
@@ -8902,7 +8725,7 @@
         <v>2.9537647208249198E-6</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="R35">
         <v>42</v>
@@ -8911,7 +8734,7 @@
         <v>1.2974788441440599E-5</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="V35">
         <v>2805</v>
@@ -8922,7 +8745,7 @@
     </row>
     <row r="36" spans="13:23" x14ac:dyDescent="0.35">
       <c r="U36" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="V36">
         <v>2542</v>
@@ -8933,7 +8756,7 @@
     </row>
     <row r="37" spans="13:23" x14ac:dyDescent="0.35">
       <c r="U37" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="V37">
         <v>2011</v>
@@ -8944,7 +8767,7 @@
     </row>
     <row r="38" spans="13:23" x14ac:dyDescent="0.35">
       <c r="U38" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="V38">
         <v>1460</v>
@@ -8955,7 +8778,7 @@
     </row>
     <row r="39" spans="13:23" x14ac:dyDescent="0.35">
       <c r="U39" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="V39">
         <v>1444</v>
@@ -8977,7 +8800,7 @@
     </row>
     <row r="41" spans="13:23" x14ac:dyDescent="0.35">
       <c r="U41" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="V41">
         <v>1148</v>
@@ -8988,7 +8811,7 @@
     </row>
     <row r="42" spans="13:23" x14ac:dyDescent="0.35">
       <c r="U42" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="V42">
         <v>776</v>
@@ -8999,7 +8822,7 @@
     </row>
     <row r="43" spans="13:23" x14ac:dyDescent="0.35">
       <c r="U43" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="V43">
         <v>704</v>
@@ -9010,7 +8833,7 @@
     </row>
     <row r="44" spans="13:23" x14ac:dyDescent="0.35">
       <c r="U44" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="V44">
         <v>541</v>
@@ -9033,7 +8856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A33474A-8ED5-4CC5-B00E-77A7000CFA74}">
   <dimension ref="A1:AG95"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AG97" sqref="AG97"/>
     </sheetView>
   </sheetViews>
@@ -9054,17 +8877,17 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K1" s="2"/>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
@@ -9087,7 +8910,7 @@
       <c r="I3" s="1"/>
       <c r="K3" s="2"/>
       <c r="Q3" s="25" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="R3" s="26"/>
       <c r="S3" s="26"/>
@@ -9107,12 +8930,12 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I4" s="1"/>
       <c r="K4" s="2"/>
       <c r="Q4" s="25" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="R4" s="26"/>
       <c r="S4" s="26"/>
@@ -9131,10 +8954,10 @@
     </row>
     <row r="5" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I5" s="1"/>
       <c r="K5" s="2"/>
@@ -9144,43 +8967,43 @@
       <c r="I6" s="1"/>
       <c r="K6" s="2"/>
       <c r="Q6" s="29" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="R6" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="S6" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="T6" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="U6" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="V6" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="W6" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="X6" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y6" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z6" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="S6" s="31" t="s">
+      <c r="AA6" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="T6" s="31" t="s">
+      <c r="AB6" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="U6" s="31" t="s">
+      <c r="AC6" s="32" t="s">
         <v>101</v>
-      </c>
-      <c r="V6" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="W6" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="X6" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y6" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z6" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA6" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB6" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC6" s="32" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
@@ -9221,46 +9044,46 @@
         <v>0.116278230196074</v>
       </c>
       <c r="Q7" s="43" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="R7" s="33">
         <v>0.23252090375378001</v>
       </c>
       <c r="S7" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="T7" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="U7" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="V7" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="W7" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="X7" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Y7" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Z7" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AA7" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AB7" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AC7" s="35" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="AF7">
         <v>875</v>
@@ -9289,7 +9112,7 @@
         <v>0.101481284665714</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J8">
         <v>335549</v>
@@ -9298,7 +9121,7 @@
         <v>0.117105518476587</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="N8">
         <v>347976</v>
@@ -9313,40 +9136,40 @@
         <v>3.8427326098558978E-2</v>
       </c>
       <c r="S8" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="T8" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="U8" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="V8" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="W8" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="X8" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Y8" s="37">
         <v>7.6498843622131293E-3</v>
       </c>
       <c r="Z8" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AA8" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AB8" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AC8" s="38" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="AF8">
         <v>822</v>
@@ -9366,7 +9189,7 @@
         <v>9.0771578496465999E-2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F9">
         <v>17040</v>
@@ -9384,7 +9207,7 @@
         <v>8.8662979399418404E-2</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N9">
         <v>312820</v>
@@ -9399,40 +9222,40 @@
         <v>7.9879025084504535E-2</v>
       </c>
       <c r="S9" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="T9" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="U9" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="V9" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="W9" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="X9" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Y9" s="34">
         <v>0.31969400462551145</v>
       </c>
       <c r="Z9" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AA9" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AB9" s="34">
         <v>1.2453300124533001E-3</v>
       </c>
       <c r="AC9" s="35" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="AF9">
         <v>683</v>
@@ -9470,7 +9293,7 @@
         <v>8.1890697002396901E-2</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="N10">
         <v>300298</v>
@@ -9482,43 +9305,43 @@
         <v>15</v>
       </c>
       <c r="R10" s="36" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S10" s="37">
         <v>0.45970467888276106</v>
       </c>
       <c r="T10" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="U10" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="V10" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="W10" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="X10" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Y10" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Z10" s="37">
         <v>7.2407045009784732E-2</v>
       </c>
       <c r="AA10" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AB10" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AC10" s="38" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AF10">
         <v>670</v>
@@ -9547,7 +9370,7 @@
         <v>7.5071683992604596E-2</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J11">
         <v>230729</v>
@@ -9556,7 +9379,7 @@
         <v>8.0523676639133096E-2</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="N11">
         <v>202342</v>
@@ -9568,43 +9391,43 @@
         <v>21</v>
       </c>
       <c r="R11" s="33" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S11" s="34">
         <v>3.9494751823518949E-2</v>
       </c>
       <c r="T11" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="U11" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="V11" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="W11" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="X11" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Y11" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Z11" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AA11" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AB11" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AC11" s="35">
         <v>0.51521081658067958</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AF11">
         <v>572</v>
@@ -9642,7 +9465,7 @@
         <v>7.5709266143543702E-2</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="N12">
         <v>201949</v>
@@ -9654,43 +9477,43 @@
         <v>12</v>
       </c>
       <c r="R12" s="36" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S12" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="T12" s="37">
         <v>0.19996441914250132</v>
       </c>
       <c r="U12" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="V12" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="W12" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="X12" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Y12" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Z12" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AA12" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AB12" s="37">
         <v>0.12880270414516989</v>
       </c>
       <c r="AC12" s="38" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="AF12">
         <v>462</v>
@@ -9710,7 +9533,7 @@
         <v>6.2841347183551E-2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F13">
         <v>12512</v>
@@ -9719,7 +9542,7 @@
         <v>6.9259468376011601E-2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J13">
         <v>181716</v>
@@ -9728,7 +9551,7 @@
         <v>6.3418297761255502E-2</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="N13">
         <v>194475</v>
@@ -9740,43 +9563,43 @@
         <v>18</v>
       </c>
       <c r="R13" s="33" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S13" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="T13" s="34">
         <v>4.2697028998398862E-2</v>
       </c>
       <c r="U13" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="V13" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="W13" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="X13" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Y13" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Z13" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AA13" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AB13" s="34">
         <v>7.6143035047144633E-2</v>
       </c>
       <c r="AC13" s="35" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AF13">
         <v>451</v>
@@ -9805,7 +9628,7 @@
         <v>6.1316107033334399E-2</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="J14">
         <v>166105</v>
@@ -9826,43 +9649,43 @@
         <v>20</v>
       </c>
       <c r="R14" s="36" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S14" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="T14" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="U14" s="37">
         <v>0.24995552392812667</v>
       </c>
       <c r="V14" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="W14" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="X14" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Y14" s="37">
         <v>9.9626400996264009E-3</v>
       </c>
       <c r="Z14" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AA14" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AB14" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AC14" s="38" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="AF14">
         <v>426</v>
@@ -9891,7 +9714,7 @@
         <v>5.7402548518161699E-2</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J15">
         <v>160866</v>
@@ -9912,43 +9735,43 @@
         <v>11</v>
       </c>
       <c r="R15" s="33" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S15" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="T15" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="U15" s="34">
         <v>0.10674257249599715</v>
       </c>
       <c r="V15" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="W15" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="X15" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Y15" s="34">
         <v>6.2266500622665004E-3</v>
       </c>
       <c r="Z15" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AA15" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AB15" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AC15" s="35" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="AF15">
         <v>411</v>
@@ -9977,7 +9800,7 @@
         <v>5.6051900317734403E-2</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="J16">
         <v>152971</v>
@@ -9998,43 +9821,43 @@
         <v>16</v>
       </c>
       <c r="R16" s="36" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S16" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="T16" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="U16" s="37">
         <v>1.8857854474292831E-2</v>
       </c>
       <c r="V16" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="W16" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="X16" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Y16" s="37">
         <v>5.3371286247998575E-4</v>
       </c>
       <c r="Z16" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AA16" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AB16" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AC16" s="38" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="AF16">
         <v>395</v>
@@ -10072,7 +9895,7 @@
         <v>3.5116055387184E-2</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="N17">
         <v>122041</v>
@@ -10084,43 +9907,43 @@
         <v>9</v>
       </c>
       <c r="R17" s="33" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S17" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="T17" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="U17" s="34">
         <v>2.8464685998932575E-3</v>
       </c>
       <c r="V17" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="W17" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="X17" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Y17" s="34">
         <v>1.7790428749332859E-4</v>
       </c>
       <c r="Z17" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AA17" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AB17" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AC17" s="35" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AF17">
         <v>382</v>
@@ -10149,7 +9972,7 @@
         <v>3.6749809027201097E-2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J18">
         <v>99148</v>
@@ -10167,46 +9990,46 @@
         <v>3.10841071376411E-2</v>
       </c>
       <c r="Q18" s="45" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="R18" s="36" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S18" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="T18" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="U18" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="V18" s="37">
         <v>0.20138765344244797</v>
       </c>
       <c r="W18" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="X18" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Y18" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Z18" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AA18" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AB18" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AC18" s="38" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AF18">
         <v>377</v>
@@ -10235,7 +10058,7 @@
         <v>3.5803248198213102E-2</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="J19">
         <v>76947</v>
@@ -10253,46 +10076,46 @@
         <v>2.54601391091905E-2</v>
       </c>
       <c r="Q19" s="46" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="R19" s="33" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S19" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="T19" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="U19" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="V19" s="34">
         <v>0.15210816580679595</v>
       </c>
       <c r="W19" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="X19" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Y19" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Z19" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AA19" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AB19" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AC19" s="35" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="AF19">
         <v>308</v>
@@ -10330,7 +10153,7 @@
         <v>2.27982142533074E-2</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="N20">
         <v>75932</v>
@@ -10339,46 +10162,46 @@
         <v>2.4920584753519801E-2</v>
       </c>
       <c r="Q20" s="45" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="R20" s="36" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S20" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="T20" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="U20" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="V20" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="W20" s="37">
         <v>1.779042874933286E-2</v>
       </c>
       <c r="X20" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Y20" s="37">
         <v>8.539405799679772E-3</v>
       </c>
       <c r="Z20" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AA20" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AB20" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AC20" s="38" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AE20" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="AF20">
         <v>281</v>
@@ -10416,7 +10239,7 @@
         <v>1.5789661040373298E-2</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N21">
         <v>69661</v>
@@ -10425,46 +10248,46 @@
         <v>2.2862467135265001E-2</v>
       </c>
       <c r="Q21" s="46" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="R21" s="33" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S21" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="T21" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="U21" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="V21" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="W21" s="34">
         <v>1.0496352962106386E-2</v>
       </c>
       <c r="X21" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Y21" s="34">
         <v>5.1592243373065295E-3</v>
       </c>
       <c r="Z21" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AA21" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AB21" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AC21" s="35" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="AF21">
         <v>260</v>
@@ -10493,7 +10316,7 @@
         <v>8.5688664518914597E-3</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J22">
         <v>42481</v>
@@ -10502,7 +10325,7 @@
         <v>1.48257319509338E-2</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="N22">
         <v>52873</v>
@@ -10511,46 +10334,46 @@
         <v>1.7352711342686199E-2</v>
       </c>
       <c r="Q22" s="45" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="R22" s="36" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S22" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="T22" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="U22" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="V22" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="W22" s="37">
         <v>1.9569471624266144E-3</v>
       </c>
       <c r="X22" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Y22" s="37">
         <v>3.5580857498665718E-4</v>
       </c>
       <c r="Z22" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AA22" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AB22" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AC22" s="38" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="AF22">
         <v>260</v>
@@ -10579,7 +10402,7 @@
         <v>5.2974193762662302E-3</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J23">
         <v>40417</v>
@@ -10588,7 +10411,7 @@
         <v>1.41054026096582E-2</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="N23">
         <v>34866</v>
@@ -10597,46 +10420,46 @@
         <v>1.1442884528475699E-2</v>
       </c>
       <c r="Q23" s="46" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="R23" s="33" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S23" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="T23" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="U23" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="V23" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="W23" s="34">
         <v>5.3371286247998575E-4</v>
       </c>
       <c r="X23" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Y23" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Z23" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AA23" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AB23" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AC23" s="35" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="AF23">
         <v>249</v>
@@ -10665,7 +10488,7 @@
         <v>2.2031064908609801E-3</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J24">
         <v>29564</v>
@@ -10686,43 +10509,43 @@
         <v>8</v>
       </c>
       <c r="R24" s="36" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S24" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="T24" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="U24" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="V24" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="W24" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="X24" s="37">
         <v>0.34495641344956413</v>
       </c>
       <c r="Y24" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Z24" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AA24" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AB24" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AC24" s="38" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AE24" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="AF24">
         <v>239</v>
@@ -10742,7 +10565,7 @@
         <v>6.40527950310559E-3</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F25">
         <v>30</v>
@@ -10751,7 +10574,7 @@
         <v>1.6606330333122899E-4</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J25">
         <v>28405</v>
@@ -10769,46 +10592,46 @@
         <v>8.3309292970466606E-3</v>
       </c>
       <c r="Q25" s="46" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="R25" s="33" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S25" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="T25" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="U25" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="V25" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="W25" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="X25" s="34">
         <v>0.12648994840775662</v>
       </c>
       <c r="Y25" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Z25" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AA25" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AB25" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AC25" s="35" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="AF25">
         <v>204</v>
@@ -10828,7 +10651,7 @@
         <v>5.8631398586421E-3</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F26">
         <v>10</v>
@@ -10846,7 +10669,7 @@
         <v>9.6221900524751502E-3</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="N26">
         <v>19520</v>
@@ -10855,46 +10678,46 @@
         <v>6.4063874833891702E-3</v>
       </c>
       <c r="Q26" s="45" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="R26" s="36" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S26" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="T26" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="U26" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="V26" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="W26" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="X26" s="37">
         <v>2.8464685998932575E-3</v>
       </c>
       <c r="Y26" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Z26" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AA26" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AB26" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AC26" s="38" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="AF26">
         <v>196</v>
@@ -10914,7 +10737,7 @@
         <v>5.5954165774255698E-3</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F27">
         <v>7</v>
@@ -10923,7 +10746,7 @@
         <v>3.8748104110620301E-5</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="J27">
         <v>12909</v>
@@ -10932,7 +10755,7 @@
         <v>4.50519935393717E-3</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="N27">
         <v>15605</v>
@@ -10944,43 +10767,43 @@
         <v>6</v>
       </c>
       <c r="R27" s="33" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S27" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="T27" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="U27" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="V27" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="W27" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="X27" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Y27" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Z27" s="34">
         <v>0.22558263654154065</v>
       </c>
       <c r="AA27" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AB27" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AC27" s="35" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="AF27">
         <v>168</v>
@@ -11000,7 +10823,7 @@
         <v>2.1886378239451701E-3</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J28">
         <v>2407</v>
@@ -11009,7 +10832,7 @@
         <v>8.4003523471429004E-4</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="N28">
         <v>13125</v>
@@ -11021,43 +10844,43 @@
         <v>10</v>
       </c>
       <c r="R28" s="36" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S28" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="T28" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="U28" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="V28" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="W28" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="X28" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Y28" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Z28" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AA28" s="37">
         <v>2.5796121686532645E-2</v>
       </c>
       <c r="AB28" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AC28" s="38" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AE28" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="AF28">
         <v>153</v>
@@ -11077,7 +10900,7 @@
         <v>1.8539837224245E-3</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="J29">
         <v>1810</v>
@@ -11086,7 +10909,7 @@
         <v>6.3168416071161804E-4</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="N29">
         <v>10190</v>
@@ -11095,46 +10918,46 @@
         <v>3.344318056134E-3</v>
       </c>
       <c r="Q29" s="46" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="R29" s="33" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S29" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="T29" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="U29" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="V29" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="W29" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="X29" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Y29" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Z29" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AA29" s="34">
         <v>6.4935064935064929E-2</v>
       </c>
       <c r="AB29" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AC29" s="35" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AE29" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="AF29">
         <v>151</v>
@@ -11163,7 +10986,7 @@
         <v>7.6779290252240897E-6</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="N30">
         <v>7895</v>
@@ -11172,46 +10995,46 @@
         <v>2.5911080523236402E-3</v>
       </c>
       <c r="Q30" s="45" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="R30" s="36" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S30" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="T30" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="U30" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="V30" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="W30" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="X30" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Y30" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Z30" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AA30" s="37">
         <v>1.0674257249599715E-3</v>
       </c>
       <c r="AB30" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AC30" s="38" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="AF30">
         <v>140</v>
@@ -11231,7 +11054,7 @@
         <v>3.7481259370314798E-4</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="N31">
         <v>6096</v>
@@ -11243,43 +11066,43 @@
         <v>13</v>
       </c>
       <c r="R31" s="33" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S31" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="T31" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="U31" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="V31" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="W31" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="X31" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Y31" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Z31" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AA31" s="34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AB31" s="34">
         <v>8.7884718021704319E-2</v>
       </c>
       <c r="AC31" s="35" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="AF31">
         <v>115</v>
@@ -11299,7 +11122,7 @@
         <v>2.6772328121653398E-4</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="N32">
         <v>3581</v>
@@ -11311,43 +11134,43 @@
         <v>14</v>
       </c>
       <c r="R32" s="36" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S32" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="T32" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="U32" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="V32" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="W32" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="X32" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Y32" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Z32" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AA32" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AB32" s="37">
         <v>7.2940757872264721E-3</v>
       </c>
       <c r="AC32" s="38" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AE32" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="AF32">
         <v>112</v>
@@ -11358,7 +11181,7 @@
     </row>
     <row r="33" spans="13:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M33" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="N33">
         <v>3207</v>
@@ -11367,7 +11190,7 @@
         <v>1.0525248288539399E-3</v>
       </c>
       <c r="Q33" s="39" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="R33" s="40">
         <v>0.64917274506315603</v>
@@ -11406,7 +11229,7 @@
         <v>0.48478918341932042</v>
       </c>
       <c r="AE33" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AF33">
         <v>103</v>
@@ -11426,7 +11249,7 @@
         <v>3.39354746814775E-4</v>
       </c>
       <c r="AE34" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="AF34">
         <v>100</v>
@@ -11446,7 +11269,7 @@
         <v>2.9537647208249198E-6</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="AF35">
         <v>81</v>
@@ -11457,7 +11280,7 @@
     </row>
     <row r="36" spans="13:33" x14ac:dyDescent="0.35">
       <c r="AE36" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="AF36">
         <v>74</v>
@@ -11468,7 +11291,7 @@
     </row>
     <row r="37" spans="13:33" x14ac:dyDescent="0.35">
       <c r="AE37" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AF37">
         <v>70</v>
@@ -11479,7 +11302,7 @@
     </row>
     <row r="38" spans="13:33" x14ac:dyDescent="0.35">
       <c r="AE38" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AF38">
         <v>69</v>
@@ -11490,7 +11313,7 @@
     </row>
     <row r="39" spans="13:33" x14ac:dyDescent="0.35">
       <c r="AE39" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="AF39">
         <v>67</v>
@@ -11501,7 +11324,7 @@
     </row>
     <row r="40" spans="13:33" x14ac:dyDescent="0.35">
       <c r="AE40" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AF40">
         <v>63</v>
@@ -11512,7 +11335,7 @@
     </row>
     <row r="41" spans="13:33" x14ac:dyDescent="0.35">
       <c r="AE41" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="AF41">
         <v>63</v>
@@ -11523,7 +11346,7 @@
     </row>
     <row r="42" spans="13:33" x14ac:dyDescent="0.35">
       <c r="AE42" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="AF42">
         <v>52</v>
@@ -11534,7 +11357,7 @@
     </row>
     <row r="43" spans="13:33" x14ac:dyDescent="0.35">
       <c r="AE43" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="AF43">
         <v>52</v>
@@ -11545,7 +11368,7 @@
     </row>
     <row r="44" spans="13:33" x14ac:dyDescent="0.35">
       <c r="AE44" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="AF44">
         <v>42</v>
@@ -11556,7 +11379,7 @@
     </row>
     <row r="45" spans="13:33" x14ac:dyDescent="0.35">
       <c r="AE45" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="AF45">
         <v>38</v>
@@ -11567,7 +11390,7 @@
     </row>
     <row r="46" spans="13:33" x14ac:dyDescent="0.35">
       <c r="AE46" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="AF46">
         <v>36</v>
@@ -11578,7 +11401,7 @@
     </row>
     <row r="47" spans="13:33" x14ac:dyDescent="0.35">
       <c r="AE47" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="AF47">
         <v>36</v>
@@ -11589,7 +11412,7 @@
     </row>
     <row r="48" spans="13:33" x14ac:dyDescent="0.35">
       <c r="AE48" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="AF48">
         <v>35</v>
@@ -11600,7 +11423,7 @@
     </row>
     <row r="49" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE49" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="AF49">
         <v>34</v>
@@ -11611,7 +11434,7 @@
     </row>
     <row r="50" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE50" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="AF50">
         <v>31</v>
@@ -11622,7 +11445,7 @@
     </row>
     <row r="51" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE51" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AF51">
         <v>28</v>
@@ -11633,7 +11456,7 @@
     </row>
     <row r="52" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE52" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="AF52">
         <v>27</v>
@@ -11644,7 +11467,7 @@
     </row>
     <row r="53" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE53" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="AF53">
         <v>26</v>
@@ -11655,7 +11478,7 @@
     </row>
     <row r="54" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE54" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="AF54">
         <v>24</v>
@@ -11666,7 +11489,7 @@
     </row>
     <row r="55" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE55" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="AF55">
         <v>23</v>
@@ -11677,7 +11500,7 @@
     </row>
     <row r="56" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE56" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="AF56">
         <v>22</v>
@@ -11688,7 +11511,7 @@
     </row>
     <row r="57" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE57" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="AF57">
         <v>21</v>
@@ -11699,7 +11522,7 @@
     </row>
     <row r="58" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE58" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="AF58">
         <v>21</v>
@@ -11710,7 +11533,7 @@
     </row>
     <row r="59" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE59" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="AF59">
         <v>17</v>
@@ -11721,7 +11544,7 @@
     </row>
     <row r="60" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE60" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="AF60">
         <v>17</v>
@@ -11732,7 +11555,7 @@
     </row>
     <row r="61" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE61" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="AF61">
         <v>16</v>
@@ -11743,7 +11566,7 @@
     </row>
     <row r="62" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE62" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="AF62">
         <v>14</v>
@@ -11754,7 +11577,7 @@
     </row>
     <row r="63" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE63" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="AF63">
         <v>13</v>
@@ -11765,7 +11588,7 @@
     </row>
     <row r="64" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE64" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="AF64">
         <v>13</v>
@@ -11776,7 +11599,7 @@
     </row>
     <row r="65" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE65" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="AF65">
         <v>11</v>
@@ -11787,7 +11610,7 @@
     </row>
     <row r="66" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE66" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="AF66">
         <v>11</v>
@@ -11798,7 +11621,7 @@
     </row>
     <row r="67" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE67" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AF67">
         <v>10</v>
@@ -11809,7 +11632,7 @@
     </row>
     <row r="68" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE68" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AF68">
         <v>9</v>
@@ -11820,7 +11643,7 @@
     </row>
     <row r="69" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE69" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AF69">
         <v>9</v>
@@ -11831,7 +11654,7 @@
     </row>
     <row r="70" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE70" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="AF70">
         <v>9</v>
@@ -11842,7 +11665,7 @@
     </row>
     <row r="71" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE71" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AF71">
         <v>9</v>
@@ -11853,7 +11676,7 @@
     </row>
     <row r="72" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE72" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="AF72">
         <v>8</v>
@@ -11864,7 +11687,7 @@
     </row>
     <row r="73" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE73" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="AF73">
         <v>8</v>
@@ -11875,7 +11698,7 @@
     </row>
     <row r="74" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE74" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="AF74">
         <v>8</v>
@@ -11886,7 +11709,7 @@
     </row>
     <row r="75" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE75" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AF75">
         <v>7</v>
@@ -11897,7 +11720,7 @@
     </row>
     <row r="76" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE76" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="AF76">
         <v>6</v>
@@ -11908,7 +11731,7 @@
     </row>
     <row r="77" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE77" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="AF77">
         <v>6</v>
@@ -11919,7 +11742,7 @@
     </row>
     <row r="78" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE78" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="AF78">
         <v>5</v>
@@ -11930,7 +11753,7 @@
     </row>
     <row r="79" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE79" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="AF79">
         <v>5</v>
@@ -11941,7 +11764,7 @@
     </row>
     <row r="80" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE80" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AF80">
         <v>4</v>
@@ -11952,7 +11775,7 @@
     </row>
     <row r="81" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE81" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AF81">
         <v>4</v>
@@ -11963,7 +11786,7 @@
     </row>
     <row r="82" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE82" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="AF82">
         <v>4</v>
@@ -11974,7 +11797,7 @@
     </row>
     <row r="83" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE83" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="AF83">
         <v>3</v>
@@ -11985,7 +11808,7 @@
     </row>
     <row r="84" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE84" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="AF84">
         <v>3</v>
@@ -11996,7 +11819,7 @@
     </row>
     <row r="85" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE85" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="AF85">
         <v>2</v>
@@ -12007,7 +11830,7 @@
     </row>
     <row r="86" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE86" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="AF86">
         <v>1</v>
@@ -12018,7 +11841,7 @@
     </row>
     <row r="87" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE87" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="AF87">
         <v>1</v>
@@ -12029,7 +11852,7 @@
     </row>
     <row r="88" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE88" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="AF88">
         <v>1</v>
@@ -12040,7 +11863,7 @@
     </row>
     <row r="89" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE89" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="AF89">
         <v>1</v>
@@ -12051,7 +11874,7 @@
     </row>
     <row r="90" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE90" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="AF90">
         <v>1</v>
@@ -12062,7 +11885,7 @@
     </row>
     <row r="91" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE91" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AF91">
         <v>1</v>
@@ -12073,7 +11896,7 @@
     </row>
     <row r="92" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE92" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="AF92">
         <v>1</v>
@@ -12084,7 +11907,7 @@
     </row>
     <row r="93" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE93" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="AF93">
         <v>1</v>
@@ -12095,7 +11918,7 @@
     </row>
     <row r="94" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE94" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AF94">
         <v>1</v>
@@ -12106,7 +11929,7 @@
     </row>
     <row r="95" spans="31:33" x14ac:dyDescent="0.35">
       <c r="AE95" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="AF95">
         <v>1</v>
@@ -12134,255 +11957,4 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56075B15-CAFA-41AB-A803-03F4CFD85280}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B76"/>
-  <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>584</v>
-      </c>
-      <c r="B45" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>586</v>
-      </c>
-      <c r="B46" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="47" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B61" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>605</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>